--- a/2. 연구사업(2023년)/6. 분석결과/data_raw/1. 통합 분석결과.xlsx
+++ b/2. 연구사업(2023년)/6. 분석결과/data_raw/1. 통합 분석결과.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Study\2. 연구사업(2023년)\6. 분석결과\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Study\2. 연구사업(2023년)\6. 분석결과\data_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$136</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$M$136</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$AW$136</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet2!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3913" uniqueCount="1139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3118" uniqueCount="1140">
   <si>
     <t>name</t>
   </si>
@@ -3484,6 +3484,10 @@
   </si>
   <si>
     <t>Sb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                  </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3612,7 +3616,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3684,6 +3688,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -36214,10 +36221,10 @@
   <dimension ref="A1:AW136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="V35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AP2" sqref="AP2"/>
+      <selection pane="bottomRight" activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.125" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -36525,26 +36532,26 @@
       <c r="AO2" s="23">
         <v>3.6646634493130999E-4</v>
       </c>
-      <c r="AP2" s="9" t="s">
-        <v>986</v>
-      </c>
-      <c r="AQ2" s="9" t="s">
-        <v>987</v>
-      </c>
-      <c r="AR2" s="9" t="s">
-        <v>988</v>
-      </c>
-      <c r="AS2" s="9" t="s">
-        <v>989</v>
-      </c>
-      <c r="AT2" s="9" t="s">
-        <v>990</v>
-      </c>
-      <c r="AU2" s="9" t="s">
-        <v>801</v>
-      </c>
-      <c r="AV2" s="9" t="s">
-        <v>991</v>
+      <c r="AP2" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="AQ2" s="25">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AR2" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="AS2" s="25">
+        <v>8</v>
+      </c>
+      <c r="AT2" s="25">
+        <v>148</v>
+      </c>
+      <c r="AU2" s="25">
+        <v>0.35</v>
+      </c>
+      <c r="AV2" s="25">
+        <v>7.76</v>
       </c>
       <c r="AW2" s="9"/>
     </row>
@@ -36668,24 +36675,24 @@
       <c r="AO3" s="23">
         <v>7.0894898173247704E-4</v>
       </c>
-      <c r="AP3" s="9" t="s">
-        <v>992</v>
-      </c>
-      <c r="AQ3" s="9" t="s">
-        <v>993</v>
+      <c r="AP3" s="25">
+        <v>0.08</v>
+      </c>
+      <c r="AQ3" s="25">
+        <v>0.8</v>
       </c>
       <c r="AR3" s="9"/>
-      <c r="AS3" s="9" t="s">
-        <v>825</v>
-      </c>
-      <c r="AT3" s="9" t="s">
-        <v>994</v>
-      </c>
-      <c r="AU3" s="9" t="s">
-        <v>724</v>
-      </c>
-      <c r="AV3" s="9" t="s">
-        <v>725</v>
+      <c r="AS3" s="25">
+        <v>5</v>
+      </c>
+      <c r="AT3" s="25">
+        <v>38</v>
+      </c>
+      <c r="AU3" s="25">
+        <v>0.47</v>
+      </c>
+      <c r="AV3" s="25">
+        <v>7.77</v>
       </c>
       <c r="AW3" s="9"/>
     </row>
@@ -36800,8 +36807,8 @@
       <c r="AL4" s="23">
         <v>-2.4544437140037399E-4</v>
       </c>
-      <c r="AM4" s="23" t="s">
-        <v>629</v>
+      <c r="AM4" s="25">
+        <v>0.57621739508959402</v>
       </c>
       <c r="AN4" s="23">
         <v>7.0174266019584004E-4</v>
@@ -36809,29 +36816,29 @@
       <c r="AO4" s="23">
         <v>2.64321927732458E-4</v>
       </c>
-      <c r="AP4" s="9" t="s">
-        <v>995</v>
-      </c>
-      <c r="AQ4" s="9" t="s">
-        <v>996</v>
-      </c>
-      <c r="AR4" s="9" t="s">
-        <v>997</v>
-      </c>
-      <c r="AS4" s="9" t="s">
-        <v>998</v>
-      </c>
-      <c r="AT4" s="9" t="s">
-        <v>999</v>
-      </c>
-      <c r="AU4" s="9" t="s">
-        <v>650</v>
-      </c>
-      <c r="AV4" s="9" t="s">
-        <v>775</v>
-      </c>
-      <c r="AW4" s="9" t="s">
-        <v>1000</v>
+      <c r="AP4" s="25">
+        <v>0.09</v>
+      </c>
+      <c r="AQ4" s="25">
+        <v>52.1</v>
+      </c>
+      <c r="AR4" s="25">
+        <v>6.4</v>
+      </c>
+      <c r="AS4" s="25">
+        <v>15</v>
+      </c>
+      <c r="AT4" s="25">
+        <v>238</v>
+      </c>
+      <c r="AU4" s="25">
+        <v>0.44</v>
+      </c>
+      <c r="AV4" s="25">
+        <v>7.37</v>
+      </c>
+      <c r="AW4" s="25">
+        <v>2.444E-3</v>
       </c>
     </row>
     <row r="5" spans="1:49" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -36950,26 +36957,26 @@
       <c r="AO5" s="23">
         <v>4.3083166569493397E-4</v>
       </c>
-      <c r="AP5" s="9" t="s">
-        <v>1001</v>
-      </c>
-      <c r="AQ5" s="9" t="s">
-        <v>1002</v>
-      </c>
-      <c r="AR5" s="9" t="s">
-        <v>1003</v>
-      </c>
-      <c r="AS5" s="9" t="s">
-        <v>1004</v>
-      </c>
-      <c r="AT5" s="9" t="s">
-        <v>1005</v>
-      </c>
-      <c r="AU5" s="9" t="s">
-        <v>1006</v>
-      </c>
-      <c r="AV5" s="9" t="s">
-        <v>1007</v>
+      <c r="AP5" s="25">
+        <v>0.06</v>
+      </c>
+      <c r="AQ5" s="25">
+        <v>2.1</v>
+      </c>
+      <c r="AR5" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="AS5" s="25">
+        <v>6</v>
+      </c>
+      <c r="AT5" s="25">
+        <v>86</v>
+      </c>
+      <c r="AU5" s="25">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AV5" s="25">
+        <v>7.89</v>
       </c>
       <c r="AW5" s="9"/>
     </row>
@@ -37092,17 +37099,17 @@
       <c r="AP6" s="9"/>
       <c r="AQ6" s="9"/>
       <c r="AR6" s="9"/>
-      <c r="AS6" s="9" t="s">
-        <v>1008</v>
-      </c>
-      <c r="AT6" s="9" t="s">
-        <v>788</v>
-      </c>
-      <c r="AU6" s="9" t="s">
-        <v>835</v>
-      </c>
-      <c r="AV6" s="9" t="s">
-        <v>1009</v>
+      <c r="AS6" s="25">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="25">
+        <v>12</v>
+      </c>
+      <c r="AU6" s="25">
+        <v>0.49</v>
+      </c>
+      <c r="AV6" s="25">
+        <v>9.83</v>
       </c>
       <c r="AW6" s="9"/>
     </row>
@@ -37337,8 +37344,8 @@
       <c r="AK8" s="23">
         <v>0.62687773851430495</v>
       </c>
-      <c r="AL8" s="23" t="s">
-        <v>630</v>
+      <c r="AL8" s="25">
+        <v>8.4377468264725994</v>
       </c>
       <c r="AM8" s="23">
         <v>1.50948023905965E-4</v>
@@ -37350,24 +37357,24 @@
         <v>1.1621243309122499E-3</v>
       </c>
       <c r="AP8" s="9"/>
-      <c r="AQ8" s="9" t="s">
-        <v>1011</v>
+      <c r="AQ8" s="25">
+        <v>25.1</v>
       </c>
       <c r="AR8" s="9"/>
-      <c r="AS8" s="9" t="s">
-        <v>1012</v>
-      </c>
-      <c r="AT8" s="9" t="s">
-        <v>1013</v>
-      </c>
-      <c r="AU8" s="9" t="s">
-        <v>1014</v>
-      </c>
-      <c r="AV8" s="9" t="s">
-        <v>1015</v>
-      </c>
-      <c r="AW8" s="9" t="s">
-        <v>1016</v>
+      <c r="AS8" s="25">
+        <v>118</v>
+      </c>
+      <c r="AT8" s="25">
+        <v>123</v>
+      </c>
+      <c r="AU8" s="25">
+        <v>0.46</v>
+      </c>
+      <c r="AV8" s="25">
+        <v>6.66</v>
+      </c>
+      <c r="AW8" s="25">
+        <v>5.1999999999999995E-4</v>
       </c>
     </row>
     <row r="9" spans="1:49" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -37489,17 +37496,17 @@
       <c r="AP9" s="9"/>
       <c r="AQ9" s="9"/>
       <c r="AR9" s="9"/>
-      <c r="AS9" s="9" t="s">
-        <v>1008</v>
-      </c>
-      <c r="AT9" s="9" t="s">
-        <v>852</v>
-      </c>
-      <c r="AU9" s="9" t="s">
-        <v>875</v>
-      </c>
-      <c r="AV9" s="9" t="s">
-        <v>1017</v>
+      <c r="AS9" s="25">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="25">
+        <v>14</v>
+      </c>
+      <c r="AU9" s="25">
+        <v>0.42</v>
+      </c>
+      <c r="AV9" s="25">
+        <v>9.7200000000000006</v>
       </c>
       <c r="AW9" s="9"/>
     </row>
@@ -37622,17 +37629,17 @@
       <c r="AP10" s="9"/>
       <c r="AQ10" s="9"/>
       <c r="AR10" s="9"/>
-      <c r="AS10" s="9" t="s">
-        <v>1008</v>
-      </c>
-      <c r="AT10" s="9" t="s">
-        <v>688</v>
-      </c>
-      <c r="AU10" s="9" t="s">
-        <v>1018</v>
-      </c>
-      <c r="AV10" s="9" t="s">
-        <v>1019</v>
+      <c r="AS10" s="25">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="25">
+        <v>9</v>
+      </c>
+      <c r="AU10" s="25">
+        <v>0.36</v>
+      </c>
+      <c r="AV10" s="25">
+        <v>9.69</v>
       </c>
       <c r="AW10" s="9"/>
     </row>
@@ -37736,24 +37743,24 @@
       <c r="AO11" s="23">
         <v>1.29811156252017E-3</v>
       </c>
-      <c r="AP11" s="9" t="s">
-        <v>864</v>
-      </c>
-      <c r="AQ11" s="9" t="s">
-        <v>1020</v>
+      <c r="AP11" s="25">
+        <v>0.13</v>
+      </c>
+      <c r="AQ11" s="25">
+        <v>1.1000000000000001</v>
       </c>
       <c r="AR11" s="9"/>
-      <c r="AS11" s="9" t="s">
-        <v>989</v>
-      </c>
-      <c r="AT11" s="9" t="s">
-        <v>908</v>
-      </c>
-      <c r="AU11" s="9" t="s">
-        <v>1021</v>
-      </c>
-      <c r="AV11" s="9" t="s">
-        <v>831</v>
+      <c r="AS11" s="25">
+        <v>8</v>
+      </c>
+      <c r="AT11" s="25">
+        <v>58</v>
+      </c>
+      <c r="AU11" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="AV11" s="25">
+        <v>7.88</v>
       </c>
       <c r="AW11" s="9"/>
     </row>
@@ -37857,24 +37864,24 @@
       <c r="AO12" s="23">
         <v>1.52348269124006E-3</v>
       </c>
-      <c r="AP12" s="9" t="s">
-        <v>864</v>
-      </c>
-      <c r="AQ12" s="9" t="s">
-        <v>1022</v>
+      <c r="AP12" s="25">
+        <v>0.13</v>
+      </c>
+      <c r="AQ12" s="25">
+        <v>1.2</v>
       </c>
       <c r="AR12" s="9"/>
-      <c r="AS12" s="9" t="s">
-        <v>989</v>
-      </c>
-      <c r="AT12" s="9" t="s">
-        <v>1023</v>
-      </c>
-      <c r="AU12" s="9" t="s">
-        <v>1024</v>
-      </c>
-      <c r="AV12" s="9" t="s">
-        <v>831</v>
+      <c r="AS12" s="25">
+        <v>8</v>
+      </c>
+      <c r="AT12" s="25">
+        <v>53</v>
+      </c>
+      <c r="AU12" s="25">
+        <v>0.31</v>
+      </c>
+      <c r="AV12" s="25">
+        <v>7.88</v>
       </c>
       <c r="AW12" s="9"/>
     </row>
@@ -37995,21 +38002,21 @@
         <v>9.1961240591528E-4</v>
       </c>
       <c r="AP13" s="9"/>
-      <c r="AQ13" s="9" t="s">
-        <v>1025</v>
+      <c r="AQ13" s="25">
+        <v>56.9</v>
       </c>
       <c r="AR13" s="9"/>
-      <c r="AS13" s="9" t="s">
-        <v>1026</v>
-      </c>
-      <c r="AT13" s="9" t="s">
-        <v>1027</v>
-      </c>
-      <c r="AU13" s="9" t="s">
-        <v>796</v>
-      </c>
-      <c r="AV13" s="9" t="s">
-        <v>1028</v>
+      <c r="AS13" s="25">
+        <v>157</v>
+      </c>
+      <c r="AT13" s="25">
+        <v>168</v>
+      </c>
+      <c r="AU13" s="25">
+        <v>0.41</v>
+      </c>
+      <c r="AV13" s="25">
+        <v>9.02</v>
       </c>
       <c r="AW13" s="9"/>
     </row>
@@ -38113,26 +38120,26 @@
       <c r="AO14" s="23">
         <v>4.1623441715353201E-4</v>
       </c>
-      <c r="AP14" s="9" t="s">
-        <v>1029</v>
-      </c>
-      <c r="AQ14" s="9" t="s">
-        <v>1030</v>
-      </c>
-      <c r="AR14" s="9" t="s">
-        <v>1031</v>
-      </c>
-      <c r="AS14" s="9" t="s">
-        <v>1004</v>
-      </c>
-      <c r="AT14" s="9" t="s">
-        <v>1032</v>
-      </c>
-      <c r="AU14" s="9" t="s">
-        <v>967</v>
-      </c>
-      <c r="AV14" s="9" t="s">
-        <v>1033</v>
+      <c r="AP14" s="25">
+        <v>0.04</v>
+      </c>
+      <c r="AQ14" s="25">
+        <v>3.5</v>
+      </c>
+      <c r="AR14" s="25">
+        <v>0.9</v>
+      </c>
+      <c r="AS14" s="25">
+        <v>6</v>
+      </c>
+      <c r="AT14" s="25">
+        <v>29</v>
+      </c>
+      <c r="AU14" s="25">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AV14" s="25">
+        <v>7.27</v>
       </c>
       <c r="AW14" s="9"/>
     </row>
@@ -38234,26 +38241,26 @@
       <c r="AO15" s="23">
         <v>1.31682976860808E-4</v>
       </c>
-      <c r="AP15" s="9" t="s">
-        <v>1034</v>
-      </c>
-      <c r="AQ15" s="9" t="s">
-        <v>1035</v>
-      </c>
-      <c r="AR15" s="9" t="s">
-        <v>830</v>
-      </c>
-      <c r="AS15" s="9" t="s">
-        <v>1036</v>
-      </c>
-      <c r="AT15" s="9" t="s">
-        <v>1037</v>
-      </c>
-      <c r="AU15" s="9" t="s">
-        <v>1038</v>
-      </c>
-      <c r="AV15" s="9" t="s">
-        <v>831</v>
+      <c r="AP15" s="25">
+        <v>0.17</v>
+      </c>
+      <c r="AQ15" s="25">
+        <v>6.3</v>
+      </c>
+      <c r="AR15" s="25">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AS15" s="25">
+        <v>24</v>
+      </c>
+      <c r="AT15" s="25">
+        <v>130</v>
+      </c>
+      <c r="AU15" s="25">
+        <v>0.39</v>
+      </c>
+      <c r="AV15" s="25">
+        <v>7.88</v>
       </c>
       <c r="AW15" s="9"/>
     </row>
@@ -38357,24 +38364,24 @@
       <c r="AO16" s="23">
         <v>1.5072069571397E-3</v>
       </c>
-      <c r="AP16" s="9" t="s">
-        <v>685</v>
-      </c>
-      <c r="AQ16" s="9" t="s">
-        <v>1039</v>
+      <c r="AP16" s="25">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AQ16" s="25">
+        <v>1.4</v>
       </c>
       <c r="AR16" s="9"/>
-      <c r="AS16" s="9" t="s">
-        <v>1040</v>
-      </c>
-      <c r="AT16" s="9" t="s">
-        <v>1041</v>
-      </c>
-      <c r="AU16" s="9" t="s">
-        <v>721</v>
-      </c>
-      <c r="AV16" s="9" t="s">
-        <v>1042</v>
+      <c r="AS16" s="25">
+        <v>9</v>
+      </c>
+      <c r="AT16" s="25">
+        <v>70</v>
+      </c>
+      <c r="AU16" s="25">
+        <v>0.34</v>
+      </c>
+      <c r="AV16" s="25">
+        <v>7.84</v>
       </c>
       <c r="AW16" s="9"/>
     </row>
@@ -38492,26 +38499,26 @@
       <c r="AO17" s="23">
         <v>3.8177144963997297E-4</v>
       </c>
-      <c r="AP17" s="9" t="s">
-        <v>1043</v>
-      </c>
-      <c r="AQ17" s="9" t="s">
-        <v>1044</v>
-      </c>
-      <c r="AR17" s="9" t="s">
-        <v>1045</v>
-      </c>
-      <c r="AS17" s="9" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AT17" s="9" t="s">
-        <v>1047</v>
-      </c>
-      <c r="AU17" s="9" t="s">
-        <v>721</v>
-      </c>
-      <c r="AV17" s="9" t="s">
-        <v>1048</v>
+      <c r="AP17" s="25">
+        <v>0.05</v>
+      </c>
+      <c r="AQ17" s="25">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="AR17" s="25">
+        <v>3.4</v>
+      </c>
+      <c r="AS17" s="25">
+        <v>11</v>
+      </c>
+      <c r="AT17" s="25">
+        <v>80</v>
+      </c>
+      <c r="AU17" s="25">
+        <v>0.34</v>
+      </c>
+      <c r="AV17" s="25">
+        <v>7.01</v>
       </c>
       <c r="AW17" s="9"/>
     </row>
@@ -38626,8 +38633,8 @@
       <c r="AL18" s="23">
         <v>-9.3669885763505696E-4</v>
       </c>
-      <c r="AM18" s="24" t="s">
-        <v>631</v>
+      <c r="AM18" s="25">
+        <v>0.67791722428129297</v>
       </c>
       <c r="AN18" s="23">
         <v>6.8451276773250698E-4</v>
@@ -38635,29 +38642,29 @@
       <c r="AO18" s="23">
         <v>2.2700648653305099E-4</v>
       </c>
-      <c r="AP18" s="9" t="s">
-        <v>986</v>
-      </c>
-      <c r="AQ18" s="9" t="s">
-        <v>1049</v>
-      </c>
-      <c r="AR18" s="9" t="s">
-        <v>1050</v>
-      </c>
-      <c r="AS18" s="9" t="s">
-        <v>1051</v>
-      </c>
-      <c r="AT18" s="9" t="s">
-        <v>999</v>
-      </c>
-      <c r="AU18" s="9" t="s">
-        <v>957</v>
-      </c>
-      <c r="AV18" s="9" t="s">
-        <v>1052</v>
-      </c>
-      <c r="AW18" s="9" t="s">
-        <v>1053</v>
+      <c r="AP18" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="AQ18" s="25">
+        <v>53.2</v>
+      </c>
+      <c r="AR18" s="25">
+        <v>5.8</v>
+      </c>
+      <c r="AS18" s="25">
+        <v>14</v>
+      </c>
+      <c r="AT18" s="25">
+        <v>238</v>
+      </c>
+      <c r="AU18" s="25">
+        <v>0.45</v>
+      </c>
+      <c r="AV18" s="25">
+        <v>7.53</v>
+      </c>
+      <c r="AW18" s="25">
+        <v>3.4350000000000001E-3</v>
       </c>
     </row>
     <row r="19" spans="1:49" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -38760,26 +38767,26 @@
       <c r="AO19" s="23">
         <v>1.6697077815583201E-3</v>
       </c>
-      <c r="AP19" s="9" t="s">
-        <v>1001</v>
-      </c>
-      <c r="AQ19" s="9" t="s">
-        <v>1054</v>
-      </c>
-      <c r="AR19" s="9" t="s">
-        <v>830</v>
-      </c>
-      <c r="AS19" s="9" t="s">
-        <v>1055</v>
-      </c>
-      <c r="AT19" s="9" t="s">
-        <v>1056</v>
-      </c>
-      <c r="AU19" s="9" t="s">
-        <v>1057</v>
-      </c>
-      <c r="AV19" s="9" t="s">
-        <v>1058</v>
+      <c r="AP19" s="25">
+        <v>0.06</v>
+      </c>
+      <c r="AQ19" s="25">
+        <v>20.2</v>
+      </c>
+      <c r="AR19" s="25">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AS19" s="25">
+        <v>18</v>
+      </c>
+      <c r="AT19" s="25">
+        <v>96</v>
+      </c>
+      <c r="AU19" s="25">
+        <v>0.79</v>
+      </c>
+      <c r="AV19" s="25">
+        <v>7.42</v>
       </c>
       <c r="AW19" s="9"/>
     </row>
@@ -38883,26 +38890,26 @@
       <c r="AO20" s="23">
         <v>2.5320612906247298E-5</v>
       </c>
-      <c r="AP20" s="9" t="s">
-        <v>791</v>
-      </c>
-      <c r="AQ20" s="9" t="s">
-        <v>1059</v>
-      </c>
-      <c r="AR20" s="9" t="s">
-        <v>1060</v>
-      </c>
-      <c r="AS20" s="9" t="s">
-        <v>794</v>
-      </c>
-      <c r="AT20" s="9" t="s">
-        <v>932</v>
-      </c>
-      <c r="AU20" s="9" t="s">
-        <v>957</v>
-      </c>
-      <c r="AV20" s="9" t="s">
-        <v>1033</v>
+      <c r="AP20" s="25">
+        <v>0.22</v>
+      </c>
+      <c r="AQ20" s="25">
+        <v>7.3</v>
+      </c>
+      <c r="AR20" s="25">
+        <v>1.6</v>
+      </c>
+      <c r="AS20" s="25">
+        <v>10</v>
+      </c>
+      <c r="AT20" s="25">
+        <v>63</v>
+      </c>
+      <c r="AU20" s="25">
+        <v>0.45</v>
+      </c>
+      <c r="AV20" s="25">
+        <v>7.27</v>
       </c>
       <c r="AW20" s="9"/>
     </row>
@@ -39026,24 +39033,24 @@
       <c r="AO21" s="23">
         <v>1.0250173933191301E-4</v>
       </c>
-      <c r="AP21" s="9" t="s">
-        <v>1061</v>
-      </c>
-      <c r="AQ21" s="9" t="s">
-        <v>1062</v>
+      <c r="AP21" s="25">
+        <v>0.15</v>
+      </c>
+      <c r="AQ21" s="25">
+        <v>6.2</v>
       </c>
       <c r="AR21" s="9"/>
-      <c r="AS21" s="9" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AT21" s="9" t="s">
-        <v>1063</v>
-      </c>
-      <c r="AU21" s="9" t="s">
-        <v>1064</v>
-      </c>
-      <c r="AV21" s="9" t="s">
-        <v>1065</v>
+      <c r="AS21" s="25">
+        <v>11</v>
+      </c>
+      <c r="AT21" s="25">
+        <v>156</v>
+      </c>
+      <c r="AU21" s="25">
+        <v>1.04</v>
+      </c>
+      <c r="AV21" s="25">
+        <v>6.8</v>
       </c>
       <c r="AW21" s="9"/>
     </row>
@@ -39167,24 +39174,24 @@
       <c r="AO22" s="23">
         <v>1.44093710177853E-3</v>
       </c>
-      <c r="AP22" s="9" t="s">
-        <v>986</v>
-      </c>
-      <c r="AQ22" s="9" t="s">
-        <v>1066</v>
+      <c r="AP22" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="AQ22" s="25">
+        <v>1</v>
       </c>
       <c r="AR22" s="9"/>
-      <c r="AS22" s="9" t="s">
-        <v>1004</v>
-      </c>
-      <c r="AT22" s="9" t="s">
-        <v>1067</v>
-      </c>
-      <c r="AU22" s="9" t="s">
-        <v>1068</v>
-      </c>
-      <c r="AV22" s="9" t="s">
-        <v>744</v>
+      <c r="AS22" s="25">
+        <v>6</v>
+      </c>
+      <c r="AT22" s="25">
+        <v>43</v>
+      </c>
+      <c r="AU22" s="25">
+        <v>0.37</v>
+      </c>
+      <c r="AV22" s="25">
+        <v>7.51</v>
       </c>
       <c r="AW22" s="9"/>
     </row>
@@ -39308,29 +39315,29 @@
       <c r="AO23" s="23">
         <v>4.3883477098963198E-4</v>
       </c>
-      <c r="AP23" s="9" t="s">
-        <v>995</v>
-      </c>
-      <c r="AQ23" s="9" t="s">
-        <v>1069</v>
-      </c>
-      <c r="AR23" s="9" t="s">
-        <v>1070</v>
-      </c>
-      <c r="AS23" s="9" t="s">
-        <v>989</v>
-      </c>
-      <c r="AT23" s="9" t="s">
-        <v>1071</v>
-      </c>
-      <c r="AU23" s="9" t="s">
-        <v>721</v>
-      </c>
-      <c r="AV23" s="9" t="s">
-        <v>1072</v>
-      </c>
-      <c r="AW23" s="9" t="s">
-        <v>1073</v>
+      <c r="AP23" s="25">
+        <v>0.09</v>
+      </c>
+      <c r="AQ23" s="25">
+        <v>5.2</v>
+      </c>
+      <c r="AR23" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="AS23" s="25">
+        <v>8</v>
+      </c>
+      <c r="AT23" s="25">
+        <v>134</v>
+      </c>
+      <c r="AU23" s="25">
+        <v>0.34</v>
+      </c>
+      <c r="AV23" s="25">
+        <v>8.11</v>
+      </c>
+      <c r="AW23" s="25">
+        <v>2.4030000000000002E-3</v>
       </c>
     </row>
     <row r="24" spans="1:49" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -39453,29 +39460,29 @@
       <c r="AO24" s="23">
         <v>6.4992917914657902E-5</v>
       </c>
-      <c r="AP24" s="9" t="s">
-        <v>1074</v>
-      </c>
-      <c r="AQ24" s="9" t="s">
-        <v>1075</v>
-      </c>
-      <c r="AR24" s="9" t="s">
-        <v>988</v>
-      </c>
-      <c r="AS24" s="9" t="s">
-        <v>989</v>
-      </c>
-      <c r="AT24" s="9" t="s">
-        <v>1076</v>
-      </c>
-      <c r="AU24" s="9" t="s">
-        <v>741</v>
-      </c>
-      <c r="AV24" s="9" t="s">
-        <v>1077</v>
-      </c>
-      <c r="AW24" s="9" t="s">
-        <v>1078</v>
+      <c r="AP24" s="25">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AQ24" s="25">
+        <v>5.3</v>
+      </c>
+      <c r="AR24" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="AS24" s="25">
+        <v>8</v>
+      </c>
+      <c r="AT24" s="25">
+        <v>118</v>
+      </c>
+      <c r="AU24" s="25">
+        <v>0.32</v>
+      </c>
+      <c r="AV24" s="25">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="AW24" s="25">
+        <v>2.9880000000000002E-3</v>
       </c>
     </row>
     <row r="25" spans="1:49" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -39591,21 +39598,21 @@
         <v>4.4077738064628001E-4</v>
       </c>
       <c r="AP25" s="9"/>
-      <c r="AQ25" s="9" t="s">
-        <v>1079</v>
+      <c r="AQ25" s="25">
+        <v>215.9</v>
       </c>
       <c r="AR25" s="9"/>
-      <c r="AS25" s="9" t="s">
-        <v>1008</v>
-      </c>
-      <c r="AT25" s="9" t="s">
-        <v>1080</v>
-      </c>
-      <c r="AU25" s="9" t="s">
-        <v>661</v>
-      </c>
-      <c r="AV25" s="9" t="s">
-        <v>1081</v>
+      <c r="AS25" s="25">
+        <v>0</v>
+      </c>
+      <c r="AT25" s="25">
+        <v>274</v>
+      </c>
+      <c r="AU25" s="25">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AV25" s="25">
+        <v>6.22</v>
       </c>
       <c r="AW25" s="9"/>
     </row>
@@ -39720,8 +39727,8 @@
       <c r="AL26" s="23">
         <v>-4.2694223480770603E-4</v>
       </c>
-      <c r="AM26" s="23" t="s">
-        <v>632</v>
+      <c r="AM26" s="25">
+        <v>0.589296556562657</v>
       </c>
       <c r="AN26" s="23">
         <v>6.9308008504279897E-4</v>
@@ -39729,29 +39736,29 @@
       <c r="AO26" s="23">
         <v>2.2181795055650899E-4</v>
       </c>
-      <c r="AP26" s="9" t="s">
-        <v>1082</v>
-      </c>
-      <c r="AQ26" s="9" t="s">
-        <v>1083</v>
-      </c>
-      <c r="AR26" s="9" t="s">
-        <v>1050</v>
-      </c>
-      <c r="AS26" s="9" t="s">
-        <v>1051</v>
-      </c>
-      <c r="AT26" s="9" t="s">
-        <v>1084</v>
-      </c>
-      <c r="AU26" s="9" t="s">
-        <v>1085</v>
-      </c>
-      <c r="AV26" s="9" t="s">
-        <v>829</v>
-      </c>
-      <c r="AW26" s="9" t="s">
-        <v>1086</v>
+      <c r="AP26" s="25">
+        <v>0.11</v>
+      </c>
+      <c r="AQ26" s="25">
+        <v>53.3</v>
+      </c>
+      <c r="AR26" s="25">
+        <v>5.8</v>
+      </c>
+      <c r="AS26" s="25">
+        <v>14</v>
+      </c>
+      <c r="AT26" s="25">
+        <v>249</v>
+      </c>
+      <c r="AU26" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="AV26" s="25">
+        <v>7.5</v>
+      </c>
+      <c r="AW26" s="25">
+        <v>4.3030000000000004E-3</v>
       </c>
     </row>
     <row r="27" spans="1:49" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -39874,29 +39881,29 @@
       <c r="AO27" s="23">
         <v>1.64593163810297E-3</v>
       </c>
-      <c r="AP27" s="9" t="s">
-        <v>1061</v>
-      </c>
-      <c r="AQ27" s="9" t="s">
-        <v>1087</v>
-      </c>
-      <c r="AR27" s="9" t="s">
-        <v>1088</v>
-      </c>
-      <c r="AS27" s="9" t="s">
-        <v>989</v>
-      </c>
-      <c r="AT27" s="9" t="s">
-        <v>1089</v>
-      </c>
-      <c r="AU27" s="9" t="s">
-        <v>741</v>
-      </c>
-      <c r="AV27" s="9" t="s">
-        <v>1090</v>
-      </c>
-      <c r="AW27" s="9" t="s">
-        <v>1091</v>
+      <c r="AP27" s="25">
+        <v>0.15</v>
+      </c>
+      <c r="AQ27" s="25">
+        <v>6</v>
+      </c>
+      <c r="AR27" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="AS27" s="25">
+        <v>8</v>
+      </c>
+      <c r="AT27" s="25">
+        <v>122</v>
+      </c>
+      <c r="AU27" s="25">
+        <v>0.32</v>
+      </c>
+      <c r="AV27" s="25">
+        <v>8</v>
+      </c>
+      <c r="AW27" s="25">
+        <v>3.7949999999999998E-2</v>
       </c>
     </row>
     <row r="28" spans="1:49" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -39997,26 +40004,26 @@
       <c r="AO28" s="23">
         <v>4.7752387212065102E-4</v>
       </c>
-      <c r="AP28" s="9" t="s">
-        <v>1043</v>
-      </c>
-      <c r="AQ28" s="9" t="s">
-        <v>1092</v>
-      </c>
-      <c r="AR28" s="9" t="s">
-        <v>993</v>
-      </c>
-      <c r="AS28" s="9" t="s">
-        <v>825</v>
-      </c>
-      <c r="AT28" s="9" t="s">
-        <v>1093</v>
-      </c>
-      <c r="AU28" s="9" t="s">
-        <v>724</v>
-      </c>
-      <c r="AV28" s="9" t="s">
-        <v>1094</v>
+      <c r="AP28" s="25">
+        <v>0.05</v>
+      </c>
+      <c r="AQ28" s="25">
+        <v>5.4</v>
+      </c>
+      <c r="AR28" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="AS28" s="25">
+        <v>5</v>
+      </c>
+      <c r="AT28" s="25">
+        <v>61</v>
+      </c>
+      <c r="AU28" s="25">
+        <v>0.47</v>
+      </c>
+      <c r="AV28" s="25">
+        <v>6.82</v>
       </c>
       <c r="AW28" s="9"/>
     </row>
@@ -40120,26 +40127,26 @@
       <c r="AO29" s="23">
         <v>9.6174289791537695E-4</v>
       </c>
-      <c r="AP29" s="9" t="s">
-        <v>986</v>
-      </c>
-      <c r="AQ29" s="9" t="s">
-        <v>1095</v>
-      </c>
-      <c r="AR29" s="9" t="s">
-        <v>1003</v>
-      </c>
-      <c r="AS29" s="9" t="s">
-        <v>853</v>
-      </c>
-      <c r="AT29" s="9" t="s">
-        <v>1096</v>
-      </c>
-      <c r="AU29" s="9" t="s">
-        <v>1097</v>
-      </c>
-      <c r="AV29" s="9" t="s">
-        <v>1098</v>
+      <c r="AP29" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="AQ29" s="25">
+        <v>241.4</v>
+      </c>
+      <c r="AR29" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="AS29" s="25">
+        <v>60</v>
+      </c>
+      <c r="AT29" s="25">
+        <v>331</v>
+      </c>
+      <c r="AU29" s="25">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AV29" s="25">
+        <v>8.64</v>
       </c>
       <c r="AW29" s="9"/>
     </row>
@@ -40256,21 +40263,21 @@
         <v>4.5212073597166E-4</v>
       </c>
       <c r="AP30" s="9"/>
-      <c r="AQ30" s="9" t="s">
-        <v>1099</v>
+      <c r="AQ30" s="25">
+        <v>428.1</v>
       </c>
       <c r="AR30" s="9"/>
-      <c r="AS30" s="9" t="s">
-        <v>1008</v>
-      </c>
-      <c r="AT30" s="9" t="s">
-        <v>1100</v>
-      </c>
-      <c r="AU30" s="9" t="s">
-        <v>1101</v>
-      </c>
-      <c r="AV30" s="9" t="s">
-        <v>1102</v>
+      <c r="AS30" s="25">
+        <v>0</v>
+      </c>
+      <c r="AT30" s="25">
+        <v>501</v>
+      </c>
+      <c r="AU30" s="25">
+        <v>0.48</v>
+      </c>
+      <c r="AV30" s="25">
+        <v>6.26</v>
       </c>
       <c r="AW30" s="9"/>
     </row>
@@ -40387,21 +40394,21 @@
         <v>4.9950312522754805E-4</v>
       </c>
       <c r="AP31" s="9"/>
-      <c r="AQ31" s="9" t="s">
-        <v>1103</v>
+      <c r="AQ31" s="25">
+        <v>218.4</v>
       </c>
       <c r="AR31" s="9"/>
-      <c r="AS31" s="9" t="s">
-        <v>1008</v>
-      </c>
-      <c r="AT31" s="9" t="s">
-        <v>1104</v>
-      </c>
-      <c r="AU31" s="9" t="s">
-        <v>716</v>
-      </c>
-      <c r="AV31" s="9" t="s">
-        <v>1105</v>
+      <c r="AS31" s="25">
+        <v>0</v>
+      </c>
+      <c r="AT31" s="25">
+        <v>296</v>
+      </c>
+      <c r="AU31" s="25">
+        <v>0.7</v>
+      </c>
+      <c r="AV31" s="25">
+        <v>6.23</v>
       </c>
       <c r="AW31" s="9"/>
     </row>
@@ -40503,26 +40510,26 @@
       <c r="AO32" s="23">
         <v>2.04015921060573E-5</v>
       </c>
-      <c r="AP32" s="9" t="s">
-        <v>1106</v>
-      </c>
-      <c r="AQ32" s="9" t="s">
-        <v>1107</v>
-      </c>
-      <c r="AR32" s="9" t="s">
-        <v>1066</v>
-      </c>
-      <c r="AS32" s="9" t="s">
-        <v>998</v>
-      </c>
-      <c r="AT32" s="9" t="s">
-        <v>1108</v>
-      </c>
-      <c r="AU32" s="9" t="s">
-        <v>696</v>
-      </c>
-      <c r="AV32" s="9" t="s">
-        <v>1109</v>
+      <c r="AP32" s="25">
+        <v>0.03</v>
+      </c>
+      <c r="AQ32" s="25">
+        <v>2.6</v>
+      </c>
+      <c r="AR32" s="25">
+        <v>1</v>
+      </c>
+      <c r="AS32" s="25">
+        <v>15</v>
+      </c>
+      <c r="AT32" s="25">
+        <v>55</v>
+      </c>
+      <c r="AU32" s="25">
+        <v>0.62</v>
+      </c>
+      <c r="AV32" s="25">
+        <v>7.25</v>
       </c>
       <c r="AW32" s="9"/>
     </row>
@@ -40627,21 +40634,21 @@
         <v>-4.9981027401036504E-6</v>
       </c>
       <c r="AP33" s="9"/>
-      <c r="AQ33" s="9" t="s">
-        <v>1110</v>
-      </c>
-      <c r="AR33" s="9" t="s">
-        <v>1070</v>
+      <c r="AQ33" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="AR33" s="25">
+        <v>0.1</v>
       </c>
       <c r="AS33" s="9"/>
-      <c r="AT33" s="9" t="s">
-        <v>1111</v>
-      </c>
-      <c r="AU33" s="9" t="s">
-        <v>796</v>
-      </c>
-      <c r="AV33" s="9" t="s">
-        <v>1112</v>
+      <c r="AT33" s="25">
+        <v>17</v>
+      </c>
+      <c r="AU33" s="25">
+        <v>0.41</v>
+      </c>
+      <c r="AV33" s="25">
+        <v>5.67</v>
       </c>
       <c r="AW33" s="9"/>
     </row>
@@ -40765,26 +40772,26 @@
       <c r="AO34" s="23">
         <v>3.87865277073985E-4</v>
       </c>
-      <c r="AP34" s="9" t="s">
-        <v>986</v>
-      </c>
-      <c r="AQ34" s="9" t="s">
-        <v>815</v>
-      </c>
-      <c r="AR34" s="9" t="s">
-        <v>1039</v>
-      </c>
-      <c r="AS34" s="9" t="s">
-        <v>1113</v>
-      </c>
-      <c r="AT34" s="9" t="s">
-        <v>1114</v>
-      </c>
-      <c r="AU34" s="9" t="s">
-        <v>841</v>
-      </c>
-      <c r="AV34" s="9" t="s">
-        <v>1115</v>
+      <c r="AP34" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="AQ34" s="25">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="AR34" s="25">
+        <v>1.4</v>
+      </c>
+      <c r="AS34" s="25">
+        <v>16</v>
+      </c>
+      <c r="AT34" s="25">
+        <v>116</v>
+      </c>
+      <c r="AU34" s="25">
+        <v>0.65</v>
+      </c>
+      <c r="AV34" s="25">
+        <v>7.54</v>
       </c>
       <c r="AW34" s="9"/>
     </row>
@@ -40888,26 +40895,26 @@
       <c r="AO35" s="23">
         <v>7.4196693681716404E-5</v>
       </c>
-      <c r="AP35" s="9" t="s">
-        <v>1001</v>
-      </c>
-      <c r="AQ35" s="9" t="s">
-        <v>1116</v>
-      </c>
-      <c r="AR35" s="9" t="s">
-        <v>1003</v>
-      </c>
-      <c r="AS35" s="9" t="s">
-        <v>1117</v>
-      </c>
-      <c r="AT35" s="9" t="s">
-        <v>1118</v>
-      </c>
-      <c r="AU35" s="9" t="s">
-        <v>1119</v>
-      </c>
-      <c r="AV35" s="9" t="s">
-        <v>1120</v>
+      <c r="AP35" s="25">
+        <v>0.06</v>
+      </c>
+      <c r="AQ35" s="25">
+        <v>19</v>
+      </c>
+      <c r="AR35" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="AS35" s="25">
+        <v>12</v>
+      </c>
+      <c r="AT35" s="25">
+        <v>56</v>
+      </c>
+      <c r="AU35" s="25">
+        <v>0.66</v>
+      </c>
+      <c r="AV35" s="25">
+        <v>7.64</v>
       </c>
       <c r="AW35" s="9"/>
     </row>
@@ -41031,26 +41038,26 @@
       <c r="AO36" s="23">
         <v>0.199718040622236</v>
       </c>
-      <c r="AP36" s="9" t="s">
-        <v>704</v>
-      </c>
-      <c r="AQ36" s="9" t="s">
-        <v>736</v>
-      </c>
-      <c r="AR36" s="9" t="s">
-        <v>708</v>
-      </c>
-      <c r="AS36" s="9" t="s">
-        <v>737</v>
-      </c>
-      <c r="AT36" s="9" t="s">
-        <v>738</v>
-      </c>
-      <c r="AU36" s="9" t="s">
-        <v>739</v>
-      </c>
-      <c r="AV36" s="9" t="s">
-        <v>740</v>
+      <c r="AP36" s="25">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AQ36" s="25">
+        <v>5.4</v>
+      </c>
+      <c r="AR36" s="25">
+        <v>1.3</v>
+      </c>
+      <c r="AS36" s="25">
+        <v>7</v>
+      </c>
+      <c r="AT36" s="25">
+        <v>72</v>
+      </c>
+      <c r="AU36" s="25">
+        <v>0.41</v>
+      </c>
+      <c r="AV36" s="25">
+        <v>8.18</v>
       </c>
       <c r="AW36" s="9"/>
     </row>
@@ -41174,26 +41181,26 @@
       <c r="AO37" s="23">
         <v>0.370924119816468</v>
       </c>
-      <c r="AP37" s="9" t="s">
-        <v>855</v>
-      </c>
-      <c r="AQ37" s="9" t="s">
-        <v>787</v>
-      </c>
-      <c r="AR37" s="9" t="s">
-        <v>653</v>
-      </c>
-      <c r="AS37" s="9" t="s">
-        <v>877</v>
-      </c>
-      <c r="AT37" s="9" t="s">
-        <v>709</v>
-      </c>
-      <c r="AU37" s="9" t="s">
-        <v>663</v>
-      </c>
-      <c r="AV37" s="9" t="s">
-        <v>895</v>
+      <c r="AP37" s="25">
+        <v>0.05</v>
+      </c>
+      <c r="AQ37" s="25">
+        <v>3.3</v>
+      </c>
+      <c r="AR37" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="AS37" s="25">
+        <v>6</v>
+      </c>
+      <c r="AT37" s="25">
+        <v>57</v>
+      </c>
+      <c r="AU37" s="25">
+        <v>0.63</v>
+      </c>
+      <c r="AV37" s="25">
+        <v>7.98</v>
       </c>
       <c r="AW37" s="9"/>
     </row>
@@ -41317,26 +41324,26 @@
       <c r="AO38" s="23">
         <v>0.303674347770443</v>
       </c>
-      <c r="AP38" s="9" t="s">
-        <v>845</v>
-      </c>
-      <c r="AQ38" s="9" t="s">
-        <v>937</v>
-      </c>
-      <c r="AR38" s="9" t="s">
-        <v>652</v>
-      </c>
-      <c r="AS38" s="9" t="s">
-        <v>654</v>
-      </c>
-      <c r="AT38" s="9" t="s">
-        <v>938</v>
-      </c>
-      <c r="AU38" s="9" t="s">
-        <v>739</v>
-      </c>
-      <c r="AV38" s="9" t="s">
-        <v>939</v>
+      <c r="AP38" s="25">
+        <v>0.09</v>
+      </c>
+      <c r="AQ38" s="25">
+        <v>12</v>
+      </c>
+      <c r="AR38" s="25">
+        <v>2.9</v>
+      </c>
+      <c r="AS38" s="25">
+        <v>11</v>
+      </c>
+      <c r="AT38" s="25">
+        <v>61</v>
+      </c>
+      <c r="AU38" s="25">
+        <v>0.41</v>
+      </c>
+      <c r="AV38" s="25">
+        <v>6.79</v>
       </c>
       <c r="AW38" s="9"/>
     </row>
@@ -41460,26 +41467,26 @@
       <c r="AO39" s="23">
         <v>0.26561973405704598</v>
       </c>
-      <c r="AP39" s="9" t="s">
-        <v>711</v>
-      </c>
-      <c r="AQ39" s="9" t="s">
-        <v>712</v>
-      </c>
-      <c r="AR39" s="9" t="s">
-        <v>713</v>
-      </c>
-      <c r="AS39" s="9" t="s">
-        <v>654</v>
-      </c>
-      <c r="AT39" s="9" t="s">
-        <v>695</v>
-      </c>
-      <c r="AU39" s="9" t="s">
-        <v>714</v>
-      </c>
-      <c r="AV39" s="9" t="s">
-        <v>715</v>
+      <c r="AP39" s="25">
+        <v>0.15</v>
+      </c>
+      <c r="AQ39" s="25">
+        <v>11.9</v>
+      </c>
+      <c r="AR39" s="25">
+        <v>3</v>
+      </c>
+      <c r="AS39" s="25">
+        <v>11</v>
+      </c>
+      <c r="AT39" s="25">
+        <v>66</v>
+      </c>
+      <c r="AU39" s="25">
+        <v>0.44</v>
+      </c>
+      <c r="AV39" s="25">
+        <v>6.6</v>
       </c>
       <c r="AW39" s="9"/>
     </row>
@@ -41603,26 +41610,26 @@
       <c r="AO40" s="23">
         <v>0.35765798776930496</v>
       </c>
-      <c r="AP40" s="9" t="s">
-        <v>923</v>
-      </c>
-      <c r="AQ40" s="9" t="s">
-        <v>713</v>
-      </c>
-      <c r="AR40" s="9" t="s">
-        <v>912</v>
-      </c>
-      <c r="AS40" s="9" t="s">
-        <v>675</v>
-      </c>
-      <c r="AT40" s="9" t="s">
-        <v>853</v>
-      </c>
-      <c r="AU40" s="9" t="s">
-        <v>807</v>
-      </c>
-      <c r="AV40" s="9" t="s">
-        <v>942</v>
+      <c r="AP40" s="25">
+        <v>0.06</v>
+      </c>
+      <c r="AQ40" s="25">
+        <v>3</v>
+      </c>
+      <c r="AR40" s="25">
+        <v>1.7</v>
+      </c>
+      <c r="AS40" s="25">
+        <v>5</v>
+      </c>
+      <c r="AT40" s="25">
+        <v>60</v>
+      </c>
+      <c r="AU40" s="25">
+        <v>0.51</v>
+      </c>
+      <c r="AV40" s="25">
+        <v>7.94</v>
       </c>
       <c r="AW40" s="9"/>
     </row>
@@ -41746,26 +41753,26 @@
       <c r="AO41" s="23">
         <v>0.37534822909858201</v>
       </c>
-      <c r="AP41" s="9" t="s">
-        <v>855</v>
-      </c>
-      <c r="AQ41" s="9" t="s">
-        <v>715</v>
-      </c>
-      <c r="AR41" s="9" t="s">
-        <v>705</v>
-      </c>
-      <c r="AS41" s="9" t="s">
-        <v>688</v>
-      </c>
-      <c r="AT41" s="9" t="s">
-        <v>883</v>
-      </c>
-      <c r="AU41" s="9" t="s">
-        <v>884</v>
-      </c>
-      <c r="AV41" s="9" t="s">
-        <v>885</v>
+      <c r="AP41" s="25">
+        <v>0.05</v>
+      </c>
+      <c r="AQ41" s="25">
+        <v>6.6</v>
+      </c>
+      <c r="AR41" s="25">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AS41" s="25">
+        <v>9</v>
+      </c>
+      <c r="AT41" s="25">
+        <v>91</v>
+      </c>
+      <c r="AU41" s="25">
+        <v>0.76</v>
+      </c>
+      <c r="AV41" s="25">
+        <v>6.92</v>
       </c>
       <c r="AW41" s="9"/>
     </row>
@@ -41889,26 +41896,26 @@
       <c r="AO42" s="23">
         <v>0.29372540649642398</v>
       </c>
-      <c r="AP42" s="9" t="s">
-        <v>880</v>
-      </c>
-      <c r="AQ42" s="9" t="s">
-        <v>881</v>
-      </c>
-      <c r="AR42" s="9" t="s">
-        <v>652</v>
-      </c>
-      <c r="AS42" s="9" t="s">
-        <v>722</v>
-      </c>
-      <c r="AT42" s="9" t="s">
-        <v>853</v>
-      </c>
-      <c r="AU42" s="9" t="s">
-        <v>729</v>
-      </c>
-      <c r="AV42" s="9" t="s">
-        <v>882</v>
+      <c r="AP42" s="25">
+        <v>0.08</v>
+      </c>
+      <c r="AQ42" s="25">
+        <v>10.6</v>
+      </c>
+      <c r="AR42" s="25">
+        <v>2.9</v>
+      </c>
+      <c r="AS42" s="25">
+        <v>10</v>
+      </c>
+      <c r="AT42" s="25">
+        <v>60</v>
+      </c>
+      <c r="AU42" s="25">
+        <v>0.85</v>
+      </c>
+      <c r="AV42" s="25">
+        <v>6.74</v>
       </c>
       <c r="AW42" s="9"/>
     </row>
@@ -42032,26 +42039,26 @@
       <c r="AO43" s="23">
         <v>0.22311778319876602</v>
       </c>
-      <c r="AP43" s="9" t="s">
-        <v>776</v>
-      </c>
-      <c r="AQ43" s="9" t="s">
-        <v>786</v>
-      </c>
-      <c r="AR43" s="9" t="s">
-        <v>787</v>
-      </c>
-      <c r="AS43" s="9" t="s">
-        <v>788</v>
-      </c>
-      <c r="AT43" s="9" t="s">
-        <v>789</v>
-      </c>
-      <c r="AU43" s="9" t="s">
-        <v>779</v>
-      </c>
-      <c r="AV43" s="9" t="s">
-        <v>790</v>
+      <c r="AP43" s="25">
+        <v>0.17</v>
+      </c>
+      <c r="AQ43" s="25">
+        <v>15.2</v>
+      </c>
+      <c r="AR43" s="25">
+        <v>3.3</v>
+      </c>
+      <c r="AS43" s="25">
+        <v>12</v>
+      </c>
+      <c r="AT43" s="25">
+        <v>88</v>
+      </c>
+      <c r="AU43" s="25">
+        <v>0.19</v>
+      </c>
+      <c r="AV43" s="25">
+        <v>6.87</v>
       </c>
       <c r="AW43" s="9"/>
     </row>
@@ -42175,26 +42182,26 @@
       <c r="AO44" s="23">
         <v>0.167104779686955</v>
       </c>
-      <c r="AP44" s="9" t="s">
-        <v>711</v>
-      </c>
-      <c r="AQ44" s="9" t="s">
-        <v>763</v>
-      </c>
-      <c r="AR44" s="9" t="s">
-        <v>705</v>
-      </c>
-      <c r="AS44" s="9" t="s">
-        <v>688</v>
-      </c>
-      <c r="AT44" s="9" t="s">
-        <v>764</v>
-      </c>
-      <c r="AU44" s="9" t="s">
-        <v>714</v>
-      </c>
-      <c r="AV44" s="9" t="s">
-        <v>765</v>
+      <c r="AP44" s="25">
+        <v>0.15</v>
+      </c>
+      <c r="AQ44" s="25">
+        <v>6.2</v>
+      </c>
+      <c r="AR44" s="25">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AS44" s="25">
+        <v>9</v>
+      </c>
+      <c r="AT44" s="25">
+        <v>106</v>
+      </c>
+      <c r="AU44" s="25">
+        <v>0.44</v>
+      </c>
+      <c r="AV44" s="25">
+        <v>6.98</v>
       </c>
       <c r="AW44" s="9"/>
     </row>
@@ -42318,26 +42325,26 @@
       <c r="AO45" s="23">
         <v>0.162031734302157</v>
       </c>
-      <c r="AP45" s="9" t="s">
-        <v>711</v>
-      </c>
-      <c r="AQ45" s="9" t="s">
-        <v>683</v>
-      </c>
-      <c r="AR45" s="9" t="s">
-        <v>705</v>
-      </c>
-      <c r="AS45" s="9" t="s">
-        <v>688</v>
-      </c>
-      <c r="AT45" s="9" t="s">
-        <v>745</v>
-      </c>
-      <c r="AU45" s="9" t="s">
-        <v>706</v>
-      </c>
-      <c r="AV45" s="9" t="s">
-        <v>746</v>
+      <c r="AP45" s="25">
+        <v>0.15</v>
+      </c>
+      <c r="AQ45" s="25">
+        <v>6.3</v>
+      </c>
+      <c r="AR45" s="25">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AS45" s="25">
+        <v>9</v>
+      </c>
+      <c r="AT45" s="25">
+        <v>82</v>
+      </c>
+      <c r="AU45" s="25">
+        <v>0.38</v>
+      </c>
+      <c r="AV45" s="25">
+        <v>7.04</v>
       </c>
       <c r="AW45" s="9"/>
     </row>
@@ -42461,26 +42468,26 @@
       <c r="AO46" s="23">
         <v>0.35247123733750602</v>
       </c>
-      <c r="AP46" s="9" t="s">
-        <v>643</v>
-      </c>
-      <c r="AQ46" s="9" t="s">
-        <v>922</v>
-      </c>
-      <c r="AR46" s="9" t="s">
-        <v>837</v>
-      </c>
-      <c r="AS46" s="9" t="s">
-        <v>636</v>
-      </c>
-      <c r="AT46" s="9" t="s">
-        <v>806</v>
-      </c>
-      <c r="AU46" s="9" t="s">
-        <v>714</v>
-      </c>
-      <c r="AV46" s="9" t="s">
-        <v>767</v>
+      <c r="AP46" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="AQ46" s="25">
+        <v>1</v>
+      </c>
+      <c r="AR46" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="AS46" s="25">
+        <v>3</v>
+      </c>
+      <c r="AT46" s="25">
+        <v>29</v>
+      </c>
+      <c r="AU46" s="25">
+        <v>0.44</v>
+      </c>
+      <c r="AV46" s="25">
+        <v>7.03</v>
       </c>
       <c r="AW46" s="9"/>
     </row>
@@ -42604,26 +42611,26 @@
       <c r="AO47" s="23">
         <v>0.44768210897783201</v>
       </c>
-      <c r="AP47" s="9" t="s">
-        <v>663</v>
-      </c>
-      <c r="AQ47" s="9" t="s">
-        <v>781</v>
-      </c>
-      <c r="AR47" s="9" t="s">
-        <v>837</v>
-      </c>
-      <c r="AS47" s="9" t="s">
-        <v>669</v>
-      </c>
-      <c r="AT47" s="9" t="s">
-        <v>949</v>
-      </c>
-      <c r="AU47" s="9" t="s">
-        <v>761</v>
-      </c>
-      <c r="AV47" s="9" t="s">
-        <v>894</v>
+      <c r="AP47" s="25">
+        <v>0.63</v>
+      </c>
+      <c r="AQ47" s="25">
+        <v>0.9</v>
+      </c>
+      <c r="AR47" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="AS47" s="25">
+        <v>2</v>
+      </c>
+      <c r="AT47" s="25">
+        <v>31</v>
+      </c>
+      <c r="AU47" s="25">
+        <v>0.54</v>
+      </c>
+      <c r="AV47" s="25">
+        <v>7.02</v>
       </c>
       <c r="AW47" s="9"/>
     </row>
@@ -42747,26 +42754,26 @@
       <c r="AO48" s="23">
         <v>0.16987340954747399</v>
       </c>
-      <c r="AP48" s="9" t="s">
-        <v>716</v>
-      </c>
-      <c r="AQ48" s="9" t="s">
-        <v>664</v>
-      </c>
-      <c r="AR48" s="9" t="s">
-        <v>643</v>
-      </c>
-      <c r="AS48" s="9" t="s">
-        <v>636</v>
-      </c>
-      <c r="AT48" s="9" t="s">
-        <v>760</v>
-      </c>
-      <c r="AU48" s="9" t="s">
-        <v>766</v>
-      </c>
-      <c r="AV48" s="9" t="s">
-        <v>767</v>
+      <c r="AP48" s="25">
+        <v>0.7</v>
+      </c>
+      <c r="AQ48" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="AR48" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="AS48" s="25">
+        <v>3</v>
+      </c>
+      <c r="AT48" s="25">
+        <v>45</v>
+      </c>
+      <c r="AU48" s="25">
+        <v>1.23</v>
+      </c>
+      <c r="AV48" s="25">
+        <v>7.03</v>
       </c>
       <c r="AW48" s="9"/>
     </row>
@@ -42890,29 +42897,29 @@
       <c r="AO49" s="23">
         <v>0.10375480131469701</v>
       </c>
-      <c r="AP49" s="9" t="s">
-        <v>690</v>
-      </c>
-      <c r="AQ49" s="9" t="s">
-        <v>731</v>
-      </c>
-      <c r="AR49" s="9" t="s">
-        <v>732</v>
-      </c>
-      <c r="AS49" s="9" t="s">
-        <v>681</v>
-      </c>
-      <c r="AT49" s="9" t="s">
-        <v>702</v>
-      </c>
-      <c r="AU49" s="9" t="s">
-        <v>733</v>
-      </c>
-      <c r="AV49" s="9" t="s">
-        <v>734</v>
-      </c>
-      <c r="AW49" s="9" t="s">
-        <v>735</v>
+      <c r="AP49" s="25">
+        <v>0.19</v>
+      </c>
+      <c r="AQ49" s="25">
+        <v>11.3</v>
+      </c>
+      <c r="AR49" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="AS49" s="25">
+        <v>4</v>
+      </c>
+      <c r="AT49" s="25">
+        <v>53</v>
+      </c>
+      <c r="AU49" s="25">
+        <v>0.35</v>
+      </c>
+      <c r="AV49" s="25">
+        <v>7.11</v>
+      </c>
+      <c r="AW49" s="25">
+        <v>2.0999999999999999E-3</v>
       </c>
     </row>
     <row r="50" spans="1:49" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -43035,26 +43042,26 @@
       <c r="AO50" s="23">
         <v>0.55437981601852004</v>
       </c>
-      <c r="AP50" s="9" t="s">
-        <v>791</v>
-      </c>
-      <c r="AQ50" s="9" t="s">
-        <v>815</v>
-      </c>
-      <c r="AR50" s="9" t="s">
-        <v>816</v>
-      </c>
-      <c r="AS50" s="9" t="s">
-        <v>800</v>
-      </c>
-      <c r="AT50" s="9" t="s">
-        <v>795</v>
-      </c>
-      <c r="AU50" s="9" t="s">
-        <v>791</v>
-      </c>
-      <c r="AV50" s="9" t="s">
-        <v>817</v>
+      <c r="AP50" s="25">
+        <v>0.22</v>
+      </c>
+      <c r="AQ50" s="25">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="AR50" s="25">
+        <v>1.8</v>
+      </c>
+      <c r="AS50" s="25">
+        <v>4</v>
+      </c>
+      <c r="AT50" s="25">
+        <v>81</v>
+      </c>
+      <c r="AU50" s="25">
+        <v>0.22</v>
+      </c>
+      <c r="AV50" s="25">
+        <v>7.4</v>
       </c>
       <c r="AW50" s="9"/>
     </row>
@@ -43178,26 +43185,26 @@
       <c r="AO51" s="23">
         <v>0.24372706919977502</v>
       </c>
-      <c r="AP51" s="9" t="s">
-        <v>850</v>
-      </c>
-      <c r="AQ51" s="9" t="s">
-        <v>851</v>
-      </c>
-      <c r="AR51" s="9" t="s">
-        <v>643</v>
-      </c>
-      <c r="AS51" s="9" t="s">
-        <v>852</v>
-      </c>
-      <c r="AT51" s="9" t="s">
-        <v>853</v>
-      </c>
-      <c r="AU51" s="9" t="s">
-        <v>854</v>
-      </c>
-      <c r="AV51" s="9" t="s">
-        <v>840</v>
+      <c r="AP51" s="25">
+        <v>0.53</v>
+      </c>
+      <c r="AQ51" s="25">
+        <v>3.5</v>
+      </c>
+      <c r="AR51" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="AS51" s="25">
+        <v>14</v>
+      </c>
+      <c r="AT51" s="25">
+        <v>60</v>
+      </c>
+      <c r="AU51" s="25">
+        <v>0.16</v>
+      </c>
+      <c r="AV51" s="25">
+        <v>7.41</v>
       </c>
       <c r="AW51" s="9"/>
     </row>
@@ -43321,26 +43328,26 @@
       <c r="AO52" s="23">
         <v>9.8140431940411998E-2</v>
       </c>
-      <c r="AP52" s="9" t="s">
-        <v>656</v>
-      </c>
-      <c r="AQ52" s="9" t="s">
-        <v>657</v>
-      </c>
-      <c r="AR52" s="9" t="s">
-        <v>658</v>
-      </c>
-      <c r="AS52" s="9" t="s">
-        <v>659</v>
-      </c>
-      <c r="AT52" s="9" t="s">
-        <v>660</v>
-      </c>
-      <c r="AU52" s="9" t="s">
-        <v>661</v>
-      </c>
-      <c r="AV52" s="9" t="s">
-        <v>662</v>
+      <c r="AP52" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="AQ52" s="25">
+        <v>10.3</v>
+      </c>
+      <c r="AR52" s="25">
+        <v>3.4</v>
+      </c>
+      <c r="AS52" s="25">
+        <v>20</v>
+      </c>
+      <c r="AT52" s="25">
+        <v>93</v>
+      </c>
+      <c r="AU52" s="25">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AV52" s="25">
+        <v>7</v>
       </c>
       <c r="AW52" s="9"/>
     </row>
@@ -43464,26 +43471,26 @@
       <c r="AO53" s="23">
         <v>0.17227175707942499</v>
       </c>
-      <c r="AP53" s="9" t="s">
-        <v>776</v>
-      </c>
-      <c r="AQ53" s="9" t="s">
-        <v>896</v>
-      </c>
-      <c r="AR53" s="9" t="s">
-        <v>851</v>
-      </c>
-      <c r="AS53" s="9" t="s">
-        <v>897</v>
-      </c>
-      <c r="AT53" s="9" t="s">
-        <v>898</v>
-      </c>
-      <c r="AU53" s="9" t="s">
-        <v>899</v>
-      </c>
-      <c r="AV53" s="9" t="s">
-        <v>900</v>
+      <c r="AP53" s="25">
+        <v>0.17</v>
+      </c>
+      <c r="AQ53" s="25">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="AR53" s="25">
+        <v>3.5</v>
+      </c>
+      <c r="AS53" s="25">
+        <v>28</v>
+      </c>
+      <c r="AT53" s="25">
+        <v>97</v>
+      </c>
+      <c r="AU53" s="25">
+        <v>0.85</v>
+      </c>
+      <c r="AV53" s="25">
+        <v>7.3</v>
       </c>
       <c r="AW53" s="9"/>
     </row>
@@ -43607,26 +43614,26 @@
       <c r="AO54" s="23">
         <v>0.21393409783481199</v>
       </c>
-      <c r="AP54" s="9" t="s">
-        <v>947</v>
-      </c>
-      <c r="AQ54" s="9" t="s">
-        <v>642</v>
-      </c>
-      <c r="AR54" s="9" t="s">
-        <v>680</v>
-      </c>
-      <c r="AS54" s="9" t="s">
-        <v>675</v>
-      </c>
-      <c r="AT54" s="9" t="s">
-        <v>948</v>
-      </c>
-      <c r="AU54" s="9" t="s">
-        <v>924</v>
-      </c>
-      <c r="AV54" s="9" t="s">
-        <v>750</v>
+      <c r="AP54" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="AQ54" s="25">
+        <v>2.1</v>
+      </c>
+      <c r="AR54" s="25">
+        <v>1.4</v>
+      </c>
+      <c r="AS54" s="25">
+        <v>5</v>
+      </c>
+      <c r="AT54" s="25">
+        <v>44</v>
+      </c>
+      <c r="AU54" s="25">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AV54" s="25">
+        <v>7.13</v>
       </c>
       <c r="AW54" s="9"/>
     </row>
@@ -43895,26 +43902,26 @@
       <c r="AO56" s="23">
         <v>0.212216497681677</v>
       </c>
-      <c r="AP56" s="9" t="s">
-        <v>779</v>
-      </c>
-      <c r="AQ56" s="9" t="s">
-        <v>830</v>
-      </c>
-      <c r="AR56" s="9" t="s">
-        <v>793</v>
-      </c>
-      <c r="AS56" s="9" t="s">
-        <v>794</v>
-      </c>
-      <c r="AT56" s="9" t="s">
-        <v>660</v>
-      </c>
-      <c r="AU56" s="9" t="s">
-        <v>757</v>
-      </c>
-      <c r="AV56" s="9" t="s">
-        <v>831</v>
+      <c r="AP56" s="25">
+        <v>0.19</v>
+      </c>
+      <c r="AQ56" s="25">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AR56" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="AS56" s="25">
+        <v>10</v>
+      </c>
+      <c r="AT56" s="25">
+        <v>93</v>
+      </c>
+      <c r="AU56" s="25">
+        <v>0.32</v>
+      </c>
+      <c r="AV56" s="25">
+        <v>7.88</v>
       </c>
       <c r="AW56" s="9"/>
     </row>
@@ -44038,26 +44045,26 @@
       <c r="AO57" s="23">
         <v>0.26543936592577499</v>
       </c>
-      <c r="AP57" s="9" t="s">
-        <v>690</v>
-      </c>
-      <c r="AQ57" s="9" t="s">
-        <v>732</v>
-      </c>
-      <c r="AR57" s="9" t="s">
-        <v>674</v>
-      </c>
-      <c r="AS57" s="9" t="s">
-        <v>636</v>
-      </c>
-      <c r="AT57" s="9" t="s">
-        <v>682</v>
-      </c>
-      <c r="AU57" s="9" t="s">
-        <v>706</v>
-      </c>
-      <c r="AV57" s="9" t="s">
-        <v>772</v>
+      <c r="AP57" s="25">
+        <v>0.19</v>
+      </c>
+      <c r="AQ57" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="AR57" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="AS57" s="25">
+        <v>3</v>
+      </c>
+      <c r="AT57" s="25">
+        <v>52</v>
+      </c>
+      <c r="AU57" s="25">
+        <v>0.38</v>
+      </c>
+      <c r="AV57" s="25">
+        <v>8.2899999999999991</v>
       </c>
       <c r="AW57" s="9"/>
     </row>
@@ -44181,26 +44188,26 @@
       <c r="AO58" s="23">
         <v>0.176370855064094</v>
       </c>
-      <c r="AP58" s="9" t="s">
-        <v>692</v>
-      </c>
-      <c r="AQ58" s="9" t="s">
-        <v>759</v>
-      </c>
-      <c r="AR58" s="9" t="s">
-        <v>701</v>
-      </c>
-      <c r="AS58" s="9" t="s">
-        <v>737</v>
-      </c>
-      <c r="AT58" s="9" t="s">
-        <v>760</v>
-      </c>
-      <c r="AU58" s="9" t="s">
-        <v>761</v>
-      </c>
-      <c r="AV58" s="9" t="s">
-        <v>762</v>
+      <c r="AP58" s="25">
+        <v>0.18</v>
+      </c>
+      <c r="AQ58" s="25">
+        <v>2.5</v>
+      </c>
+      <c r="AR58" s="25">
+        <v>2.6</v>
+      </c>
+      <c r="AS58" s="25">
+        <v>7</v>
+      </c>
+      <c r="AT58" s="25">
+        <v>45</v>
+      </c>
+      <c r="AU58" s="25">
+        <v>0.54</v>
+      </c>
+      <c r="AV58" s="25">
+        <v>7.2</v>
       </c>
       <c r="AW58" s="9"/>
     </row>
@@ -44302,26 +44309,26 @@
       <c r="AO59" s="23">
         <v>0.25957465223955001</v>
       </c>
-      <c r="AP59" s="9" t="s">
-        <v>776</v>
-      </c>
-      <c r="AQ59" s="9" t="s">
-        <v>777</v>
-      </c>
-      <c r="AR59" s="9" t="s">
-        <v>643</v>
-      </c>
-      <c r="AS59" s="9" t="s">
-        <v>688</v>
-      </c>
-      <c r="AT59" s="9" t="s">
-        <v>778</v>
-      </c>
-      <c r="AU59" s="9" t="s">
-        <v>779</v>
-      </c>
-      <c r="AV59" s="9" t="s">
-        <v>780</v>
+      <c r="AP59" s="25">
+        <v>0.17</v>
+      </c>
+      <c r="AQ59" s="25">
+        <v>2.7</v>
+      </c>
+      <c r="AR59" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="AS59" s="25">
+        <v>9</v>
+      </c>
+      <c r="AT59" s="25">
+        <v>80</v>
+      </c>
+      <c r="AU59" s="25">
+        <v>0.19</v>
+      </c>
+      <c r="AV59" s="25">
+        <v>8.1</v>
       </c>
       <c r="AW59" s="9"/>
     </row>
@@ -44445,26 +44452,26 @@
       <c r="AO60" s="23">
         <v>0.20611128307083701</v>
       </c>
-      <c r="AP60" s="9" t="s">
-        <v>947</v>
-      </c>
-      <c r="AQ60" s="9" t="s">
-        <v>705</v>
-      </c>
-      <c r="AR60" s="9" t="s">
-        <v>904</v>
-      </c>
-      <c r="AS60" s="9" t="s">
-        <v>681</v>
-      </c>
-      <c r="AT60" s="9" t="s">
-        <v>940</v>
-      </c>
-      <c r="AU60" s="9" t="s">
-        <v>757</v>
-      </c>
-      <c r="AV60" s="9" t="s">
-        <v>873</v>
+      <c r="AP60" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="AQ60" s="25">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AR60" s="25">
+        <v>1.6</v>
+      </c>
+      <c r="AS60" s="25">
+        <v>4</v>
+      </c>
+      <c r="AT60" s="25">
+        <v>38</v>
+      </c>
+      <c r="AU60" s="25">
+        <v>0.32</v>
+      </c>
+      <c r="AV60" s="25">
+        <v>7.08</v>
       </c>
       <c r="AW60" s="9"/>
     </row>
@@ -44588,26 +44595,26 @@
       <c r="AO61" s="23">
         <v>0.46064418402830104</v>
       </c>
-      <c r="AP61" s="9" t="s">
-        <v>923</v>
-      </c>
-      <c r="AQ61" s="9" t="s">
-        <v>916</v>
-      </c>
-      <c r="AR61" s="9" t="s">
-        <v>732</v>
-      </c>
-      <c r="AS61" s="9" t="s">
-        <v>669</v>
-      </c>
-      <c r="AT61" s="9" t="s">
-        <v>940</v>
-      </c>
-      <c r="AU61" s="9" t="s">
-        <v>739</v>
-      </c>
-      <c r="AV61" s="9" t="s">
-        <v>941</v>
+      <c r="AP61" s="25">
+        <v>0.06</v>
+      </c>
+      <c r="AQ61" s="25">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AR61" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="AS61" s="25">
+        <v>2</v>
+      </c>
+      <c r="AT61" s="25">
+        <v>38</v>
+      </c>
+      <c r="AU61" s="25">
+        <v>0.41</v>
+      </c>
+      <c r="AV61" s="25">
+        <v>7.63</v>
       </c>
       <c r="AW61" s="9"/>
     </row>
@@ -44876,26 +44883,26 @@
       <c r="AO63" s="23">
         <v>0.23764493781431301</v>
       </c>
-      <c r="AP63" s="9" t="s">
-        <v>929</v>
-      </c>
-      <c r="AQ63" s="9" t="s">
-        <v>652</v>
-      </c>
-      <c r="AR63" s="9" t="s">
-        <v>886</v>
-      </c>
-      <c r="AS63" s="9" t="s">
-        <v>852</v>
-      </c>
-      <c r="AT63" s="9" t="s">
-        <v>932</v>
-      </c>
-      <c r="AU63" s="9" t="s">
-        <v>807</v>
-      </c>
-      <c r="AV63" s="9" t="s">
-        <v>933</v>
+      <c r="AP63" s="25">
+        <v>0.52</v>
+      </c>
+      <c r="AQ63" s="25">
+        <v>2.9</v>
+      </c>
+      <c r="AR63" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="AS63" s="25">
+        <v>14</v>
+      </c>
+      <c r="AT63" s="25">
+        <v>63</v>
+      </c>
+      <c r="AU63" s="25">
+        <v>0.51</v>
+      </c>
+      <c r="AV63" s="25">
+        <v>7.6</v>
       </c>
       <c r="AW63" s="9"/>
     </row>
@@ -45019,26 +45026,26 @@
       <c r="AO64" s="23">
         <v>0.29706485566630203</v>
       </c>
-      <c r="AP64" s="9" t="s">
-        <v>791</v>
-      </c>
-      <c r="AQ64" s="9" t="s">
-        <v>792</v>
-      </c>
-      <c r="AR64" s="9" t="s">
-        <v>793</v>
-      </c>
-      <c r="AS64" s="9" t="s">
-        <v>794</v>
-      </c>
-      <c r="AT64" s="9" t="s">
-        <v>795</v>
-      </c>
-      <c r="AU64" s="9" t="s">
-        <v>796</v>
-      </c>
-      <c r="AV64" s="9" t="s">
-        <v>797</v>
+      <c r="AP64" s="25">
+        <v>0.22</v>
+      </c>
+      <c r="AQ64" s="25">
+        <v>2.5</v>
+      </c>
+      <c r="AR64" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="AS64" s="25">
+        <v>10</v>
+      </c>
+      <c r="AT64" s="25">
+        <v>81</v>
+      </c>
+      <c r="AU64" s="25">
+        <v>0.41</v>
+      </c>
+      <c r="AV64" s="25">
+        <v>7.9</v>
       </c>
       <c r="AW64" s="9"/>
     </row>
@@ -45162,26 +45169,26 @@
       <c r="AO65" s="23">
         <v>0.34073631181229103</v>
       </c>
-      <c r="AP65" s="9" t="s">
-        <v>704</v>
-      </c>
-      <c r="AQ65" s="9" t="s">
-        <v>705</v>
-      </c>
-      <c r="AR65" s="9" t="s">
-        <v>674</v>
-      </c>
-      <c r="AS65" s="9" t="s">
-        <v>644</v>
-      </c>
-      <c r="AT65" s="9" t="s">
-        <v>695</v>
-      </c>
-      <c r="AU65" s="9" t="s">
-        <v>706</v>
-      </c>
-      <c r="AV65" s="9" t="s">
-        <v>673</v>
+      <c r="AP65" s="25">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AQ65" s="25">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AR65" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="AS65" s="25">
+        <v>8</v>
+      </c>
+      <c r="AT65" s="25">
+        <v>66</v>
+      </c>
+      <c r="AU65" s="25">
+        <v>0.38</v>
+      </c>
+      <c r="AV65" s="25">
+        <v>7.3</v>
       </c>
       <c r="AW65" s="9"/>
     </row>
@@ -45305,26 +45312,26 @@
       <c r="AO66" s="23">
         <v>0.49836469784005499</v>
       </c>
-      <c r="AP66" s="9" t="s">
-        <v>667</v>
-      </c>
-      <c r="AQ66" s="9" t="s">
-        <v>842</v>
-      </c>
-      <c r="AR66" s="9" t="s">
-        <v>886</v>
-      </c>
-      <c r="AS66" s="9" t="s">
-        <v>644</v>
-      </c>
-      <c r="AT66" s="9" t="s">
-        <v>637</v>
-      </c>
-      <c r="AU66" s="9" t="s">
-        <v>887</v>
-      </c>
-      <c r="AV66" s="9" t="s">
-        <v>888</v>
+      <c r="AP66" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="AQ66" s="25">
+        <v>2.4</v>
+      </c>
+      <c r="AR66" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="AS66" s="25">
+        <v>8</v>
+      </c>
+      <c r="AT66" s="25">
+        <v>70</v>
+      </c>
+      <c r="AU66" s="25">
+        <v>0.95</v>
+      </c>
+      <c r="AV66" s="25">
+        <v>7.86</v>
       </c>
       <c r="AW66" s="9"/>
     </row>
@@ -45448,26 +45455,26 @@
       <c r="AO67" s="23">
         <v>7.3450275280234706E-2</v>
       </c>
-      <c r="AP67" s="9" t="s">
-        <v>696</v>
-      </c>
-      <c r="AQ67" s="9" t="s">
-        <v>697</v>
-      </c>
-      <c r="AR67" s="9" t="s">
-        <v>635</v>
-      </c>
-      <c r="AS67" s="9" t="s">
-        <v>675</v>
-      </c>
-      <c r="AT67" s="9" t="s">
-        <v>698</v>
-      </c>
-      <c r="AU67" s="9" t="s">
-        <v>650</v>
-      </c>
-      <c r="AV67" s="9" t="s">
-        <v>699</v>
+      <c r="AP67" s="25">
+        <v>0.62</v>
+      </c>
+      <c r="AQ67" s="25">
+        <v>3.9</v>
+      </c>
+      <c r="AR67" s="25">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AS67" s="25">
+        <v>5</v>
+      </c>
+      <c r="AT67" s="25">
+        <v>50</v>
+      </c>
+      <c r="AU67" s="25">
+        <v>0.44</v>
+      </c>
+      <c r="AV67" s="25">
+        <v>6.8</v>
       </c>
       <c r="AW67" s="9"/>
     </row>
@@ -45591,26 +45598,26 @@
       <c r="AO68" s="23">
         <v>0.177551458804794</v>
       </c>
-      <c r="AP68" s="9" t="s">
-        <v>822</v>
-      </c>
-      <c r="AQ68" s="9" t="s">
-        <v>823</v>
-      </c>
-      <c r="AR68" s="9" t="s">
-        <v>824</v>
-      </c>
-      <c r="AS68" s="9" t="s">
-        <v>825</v>
-      </c>
-      <c r="AT68" s="9" t="s">
-        <v>702</v>
-      </c>
-      <c r="AU68" s="9" t="s">
-        <v>739</v>
-      </c>
-      <c r="AV68" s="9" t="s">
-        <v>826</v>
+      <c r="AP68" s="25">
+        <v>0.59</v>
+      </c>
+      <c r="AQ68" s="25">
+        <v>2.7</v>
+      </c>
+      <c r="AR68" s="25">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AS68" s="25">
+        <v>5</v>
+      </c>
+      <c r="AT68" s="25">
+        <v>53</v>
+      </c>
+      <c r="AU68" s="25">
+        <v>0.41</v>
+      </c>
+      <c r="AV68" s="25">
+        <v>6.67</v>
       </c>
       <c r="AW68" s="9"/>
     </row>
@@ -45734,26 +45741,26 @@
       <c r="AO69" s="23">
         <v>0.110295423894508</v>
       </c>
-      <c r="AP69" s="9" t="s">
-        <v>841</v>
-      </c>
-      <c r="AQ69" s="9" t="s">
-        <v>842</v>
-      </c>
-      <c r="AR69" s="9" t="s">
-        <v>843</v>
-      </c>
-      <c r="AS69" s="9" t="s">
-        <v>636</v>
-      </c>
-      <c r="AT69" s="9" t="s">
-        <v>760</v>
-      </c>
-      <c r="AU69" s="9" t="s">
-        <v>733</v>
-      </c>
-      <c r="AV69" s="9" t="s">
-        <v>844</v>
+      <c r="AP69" s="25">
+        <v>0.65</v>
+      </c>
+      <c r="AQ69" s="25">
+        <v>2.4</v>
+      </c>
+      <c r="AR69" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="AS69" s="25">
+        <v>3</v>
+      </c>
+      <c r="AT69" s="25">
+        <v>45</v>
+      </c>
+      <c r="AU69" s="25">
+        <v>0.35</v>
+      </c>
+      <c r="AV69" s="25">
+        <v>7.05</v>
       </c>
       <c r="AW69" s="9"/>
     </row>
@@ -45875,26 +45882,26 @@
       <c r="AO70" s="23">
         <v>0.13856807889824299</v>
       </c>
-      <c r="AP70" s="9" t="s">
-        <v>845</v>
-      </c>
-      <c r="AQ70" s="9" t="s">
-        <v>846</v>
-      </c>
-      <c r="AR70" s="9" t="s">
-        <v>847</v>
-      </c>
-      <c r="AS70" s="9" t="s">
-        <v>636</v>
-      </c>
-      <c r="AT70" s="9" t="s">
-        <v>848</v>
-      </c>
-      <c r="AU70" s="9" t="s">
-        <v>720</v>
-      </c>
-      <c r="AV70" s="9" t="s">
-        <v>849</v>
+      <c r="AP70" s="25">
+        <v>0.09</v>
+      </c>
+      <c r="AQ70" s="25">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AR70" s="25">
+        <v>1.9</v>
+      </c>
+      <c r="AS70" s="25">
+        <v>3</v>
+      </c>
+      <c r="AT70" s="25">
+        <v>42</v>
+      </c>
+      <c r="AU70" s="25">
+        <v>0.47</v>
+      </c>
+      <c r="AV70" s="25">
+        <v>6.91</v>
       </c>
       <c r="AW70" s="9"/>
     </row>
@@ -46018,29 +46025,29 @@
       <c r="AO71" s="23">
         <v>8.842952812284019E-2</v>
       </c>
-      <c r="AP71" s="9" t="s">
-        <v>845</v>
-      </c>
-      <c r="AQ71" s="9" t="s">
-        <v>906</v>
-      </c>
-      <c r="AR71" s="9" t="s">
-        <v>907</v>
-      </c>
-      <c r="AS71" s="9" t="s">
-        <v>636</v>
-      </c>
-      <c r="AT71" s="9" t="s">
-        <v>908</v>
-      </c>
-      <c r="AU71" s="9" t="s">
-        <v>757</v>
-      </c>
-      <c r="AV71" s="9" t="s">
-        <v>909</v>
-      </c>
-      <c r="AW71" s="9" t="s">
-        <v>910</v>
+      <c r="AP71" s="25">
+        <v>0.09</v>
+      </c>
+      <c r="AQ71" s="25">
+        <v>11.8</v>
+      </c>
+      <c r="AR71" s="25">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AS71" s="25">
+        <v>3</v>
+      </c>
+      <c r="AT71" s="25">
+        <v>58</v>
+      </c>
+      <c r="AU71" s="25">
+        <v>0.32</v>
+      </c>
+      <c r="AV71" s="25">
+        <v>7.09</v>
+      </c>
+      <c r="AW71" s="25">
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="72" spans="1:49" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -46161,26 +46168,26 @@
       <c r="AO72" s="23">
         <v>0.23956476549550698</v>
       </c>
-      <c r="AP72" s="9" t="s">
-        <v>716</v>
-      </c>
-      <c r="AQ72" s="9" t="s">
-        <v>717</v>
-      </c>
-      <c r="AR72" s="9" t="s">
-        <v>643</v>
-      </c>
-      <c r="AS72" s="9" t="s">
-        <v>718</v>
-      </c>
-      <c r="AT72" s="9" t="s">
-        <v>719</v>
-      </c>
-      <c r="AU72" s="9" t="s">
-        <v>720</v>
-      </c>
-      <c r="AV72" s="9" t="s">
-        <v>715</v>
+      <c r="AP72" s="25">
+        <v>0.7</v>
+      </c>
+      <c r="AQ72" s="25">
+        <v>24.7</v>
+      </c>
+      <c r="AR72" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="AS72" s="25">
+        <v>23</v>
+      </c>
+      <c r="AT72" s="25">
+        <v>230</v>
+      </c>
+      <c r="AU72" s="25">
+        <v>0.47</v>
+      </c>
+      <c r="AV72" s="25">
+        <v>6.6</v>
       </c>
       <c r="AW72" s="9"/>
     </row>
@@ -46302,26 +46309,26 @@
       <c r="AO73" s="23">
         <v>0.22945321529670501</v>
       </c>
-      <c r="AP73" s="9" t="s">
-        <v>781</v>
-      </c>
-      <c r="AQ73" s="9" t="s">
-        <v>782</v>
-      </c>
-      <c r="AR73" s="9" t="s">
-        <v>668</v>
-      </c>
-      <c r="AS73" s="9" t="s">
-        <v>783</v>
-      </c>
-      <c r="AT73" s="9" t="s">
-        <v>784</v>
-      </c>
-      <c r="AU73" s="9" t="s">
-        <v>757</v>
-      </c>
-      <c r="AV73" s="9" t="s">
-        <v>785</v>
+      <c r="AP73" s="25">
+        <v>0.9</v>
+      </c>
+      <c r="AQ73" s="25">
+        <v>28.9</v>
+      </c>
+      <c r="AR73" s="25">
+        <v>0.7</v>
+      </c>
+      <c r="AS73" s="25">
+        <v>26</v>
+      </c>
+      <c r="AT73" s="25">
+        <v>297</v>
+      </c>
+      <c r="AU73" s="25">
+        <v>0.32</v>
+      </c>
+      <c r="AV73" s="25">
+        <v>7.19</v>
       </c>
       <c r="AW73" s="9"/>
     </row>
@@ -46443,26 +46450,26 @@
       <c r="AO74" s="23">
         <v>0.22565156819134902</v>
       </c>
-      <c r="AP74" s="9" t="s">
-        <v>889</v>
-      </c>
-      <c r="AQ74" s="9" t="s">
-        <v>890</v>
-      </c>
-      <c r="AR74" s="9" t="s">
-        <v>843</v>
-      </c>
-      <c r="AS74" s="9" t="s">
-        <v>891</v>
-      </c>
-      <c r="AT74" s="9" t="s">
-        <v>892</v>
-      </c>
-      <c r="AU74" s="9" t="s">
-        <v>893</v>
-      </c>
-      <c r="AV74" s="9" t="s">
-        <v>894</v>
+      <c r="AP74" s="25">
+        <v>0.96</v>
+      </c>
+      <c r="AQ74" s="25">
+        <v>32.5</v>
+      </c>
+      <c r="AR74" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="AS74" s="25">
+        <v>25</v>
+      </c>
+      <c r="AT74" s="25">
+        <v>264</v>
+      </c>
+      <c r="AU74" s="25">
+        <v>0.98</v>
+      </c>
+      <c r="AV74" s="25">
+        <v>7.02</v>
       </c>
       <c r="AW74" s="9"/>
     </row>
@@ -46584,26 +46591,26 @@
       <c r="AO75" s="23">
         <v>0.26961282055478203</v>
       </c>
-      <c r="AP75" s="9" t="s">
-        <v>926</v>
-      </c>
-      <c r="AQ75" s="9" t="s">
-        <v>927</v>
-      </c>
-      <c r="AR75" s="9" t="s">
-        <v>857</v>
-      </c>
-      <c r="AS75" s="9" t="s">
-        <v>891</v>
-      </c>
-      <c r="AT75" s="9" t="s">
-        <v>928</v>
-      </c>
-      <c r="AU75" s="9" t="s">
-        <v>733</v>
-      </c>
-      <c r="AV75" s="9" t="s">
-        <v>734</v>
+      <c r="AP75" s="25">
+        <v>0.83</v>
+      </c>
+      <c r="AQ75" s="25">
+        <v>30</v>
+      </c>
+      <c r="AR75" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="AS75" s="25">
+        <v>25</v>
+      </c>
+      <c r="AT75" s="25">
+        <v>245</v>
+      </c>
+      <c r="AU75" s="25">
+        <v>0.35</v>
+      </c>
+      <c r="AV75" s="25">
+        <v>7.11</v>
       </c>
       <c r="AW75" s="9"/>
     </row>
@@ -46725,26 +46732,26 @@
       <c r="AO76" s="23">
         <v>0.25756579267444901</v>
       </c>
-      <c r="AP76" s="9" t="s">
-        <v>943</v>
-      </c>
-      <c r="AQ76" s="9" t="s">
-        <v>944</v>
-      </c>
-      <c r="AR76" s="9" t="s">
-        <v>843</v>
-      </c>
-      <c r="AS76" s="9" t="s">
-        <v>891</v>
-      </c>
-      <c r="AT76" s="9" t="s">
-        <v>945</v>
-      </c>
-      <c r="AU76" s="9" t="s">
-        <v>739</v>
-      </c>
-      <c r="AV76" s="9" t="s">
-        <v>946</v>
+      <c r="AP76" s="25">
+        <v>0.94</v>
+      </c>
+      <c r="AQ76" s="25">
+        <v>31.8</v>
+      </c>
+      <c r="AR76" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="AS76" s="25">
+        <v>25</v>
+      </c>
+      <c r="AT76" s="25">
+        <v>254</v>
+      </c>
+      <c r="AU76" s="25">
+        <v>0.41</v>
+      </c>
+      <c r="AV76" s="25">
+        <v>7.24</v>
       </c>
       <c r="AW76" s="9"/>
     </row>
@@ -46866,26 +46873,26 @@
       <c r="AO77" s="23">
         <v>0.23930511486901401</v>
       </c>
-      <c r="AP77" s="9" t="s">
-        <v>943</v>
-      </c>
-      <c r="AQ77" s="9" t="s">
-        <v>954</v>
-      </c>
-      <c r="AR77" s="9" t="s">
-        <v>843</v>
-      </c>
-      <c r="AS77" s="9" t="s">
-        <v>891</v>
-      </c>
-      <c r="AT77" s="9" t="s">
-        <v>955</v>
-      </c>
-      <c r="AU77" s="9" t="s">
-        <v>706</v>
-      </c>
-      <c r="AV77" s="9" t="s">
-        <v>956</v>
+      <c r="AP77" s="25">
+        <v>0.94</v>
+      </c>
+      <c r="AQ77" s="25">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="AR77" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="AS77" s="25">
+        <v>25</v>
+      </c>
+      <c r="AT77" s="25" t="s">
+        <v>1139</v>
+      </c>
+      <c r="AU77" s="25">
+        <v>0.38</v>
+      </c>
+      <c r="AV77" s="25">
+        <v>7.31</v>
       </c>
       <c r="AW77" s="9"/>
     </row>
@@ -48163,26 +48170,26 @@
       <c r="AO86" s="23">
         <v>0.32471638688503601</v>
       </c>
-      <c r="AP86" s="9" t="s">
-        <v>860</v>
-      </c>
-      <c r="AQ86" s="9" t="s">
-        <v>919</v>
-      </c>
-      <c r="AR86" s="9" t="s">
-        <v>886</v>
-      </c>
-      <c r="AS86" s="9" t="s">
-        <v>901</v>
-      </c>
-      <c r="AT86" s="9" t="s">
-        <v>920</v>
-      </c>
-      <c r="AU86" s="9" t="s">
-        <v>739</v>
-      </c>
-      <c r="AV86" s="9" t="s">
-        <v>921</v>
+      <c r="AP86" s="25">
+        <v>0.04</v>
+      </c>
+      <c r="AQ86" s="25">
+        <v>5.6</v>
+      </c>
+      <c r="AR86" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="AS86" s="25">
+        <v>1</v>
+      </c>
+      <c r="AT86" s="25">
+        <v>21</v>
+      </c>
+      <c r="AU86" s="25">
+        <v>0.41</v>
+      </c>
+      <c r="AV86" s="25">
+        <v>7.68</v>
       </c>
       <c r="AW86" s="9"/>
     </row>
@@ -48306,26 +48313,26 @@
       <c r="AO87" s="23">
         <v>0.239416991960713</v>
       </c>
-      <c r="AP87" s="9" t="s">
-        <v>685</v>
-      </c>
-      <c r="AQ87" s="9" t="s">
-        <v>827</v>
-      </c>
-      <c r="AR87" s="9" t="s">
-        <v>793</v>
-      </c>
-      <c r="AS87" s="9" t="s">
-        <v>811</v>
-      </c>
-      <c r="AT87" s="9" t="s">
-        <v>828</v>
-      </c>
-      <c r="AU87" s="9" t="s">
-        <v>733</v>
-      </c>
-      <c r="AV87" s="9" t="s">
-        <v>829</v>
+      <c r="AP87" s="25">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AQ87" s="25">
+        <v>5.7</v>
+      </c>
+      <c r="AR87" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="AS87" s="25">
+        <v>2</v>
+      </c>
+      <c r="AT87" s="25">
+        <v>37</v>
+      </c>
+      <c r="AU87" s="25">
+        <v>0.35</v>
+      </c>
+      <c r="AV87" s="25">
+        <v>7.5</v>
       </c>
       <c r="AW87" s="9"/>
     </row>
@@ -48449,26 +48456,26 @@
       <c r="AO88" s="23">
         <v>0.407226922677286</v>
       </c>
-      <c r="AP88" s="9" t="s">
-        <v>855</v>
-      </c>
-      <c r="AQ88" s="9" t="s">
-        <v>736</v>
-      </c>
-      <c r="AR88" s="9" t="s">
-        <v>886</v>
-      </c>
-      <c r="AS88" s="9" t="s">
-        <v>901</v>
-      </c>
-      <c r="AT88" s="9" t="s">
-        <v>902</v>
-      </c>
-      <c r="AU88" s="9" t="s">
-        <v>661</v>
-      </c>
-      <c r="AV88" s="9" t="s">
-        <v>725</v>
+      <c r="AP88" s="25">
+        <v>0.05</v>
+      </c>
+      <c r="AQ88" s="25">
+        <v>5.4</v>
+      </c>
+      <c r="AR88" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="AS88" s="25">
+        <v>1</v>
+      </c>
+      <c r="AT88" s="25">
+        <v>20</v>
+      </c>
+      <c r="AU88" s="25">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AV88" s="25">
+        <v>7.77</v>
       </c>
       <c r="AW88" s="9"/>
     </row>
@@ -48592,26 +48599,26 @@
       <c r="AO89" s="23">
         <v>0.267883599922489</v>
       </c>
-      <c r="AP89" s="9" t="s">
-        <v>802</v>
-      </c>
-      <c r="AQ89" s="9" t="s">
-        <v>803</v>
-      </c>
-      <c r="AR89" s="9" t="s">
-        <v>804</v>
-      </c>
-      <c r="AS89" s="9" t="s">
-        <v>805</v>
-      </c>
-      <c r="AT89" s="9" t="s">
-        <v>806</v>
-      </c>
-      <c r="AU89" s="9" t="s">
-        <v>807</v>
-      </c>
-      <c r="AV89" s="9" t="s">
-        <v>808</v>
+      <c r="AP89" s="25">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AQ89" s="25">
+        <v>13.8</v>
+      </c>
+      <c r="AR89" s="25">
+        <v>3.8</v>
+      </c>
+      <c r="AS89" s="25">
+        <v>25</v>
+      </c>
+      <c r="AT89" s="25">
+        <v>29</v>
+      </c>
+      <c r="AU89" s="25">
+        <v>0.51</v>
+      </c>
+      <c r="AV89" s="25">
+        <v>7.6</v>
       </c>
       <c r="AW89" s="9"/>
     </row>
@@ -48735,26 +48742,26 @@
       <c r="AO90" s="23">
         <v>0.215781566928891</v>
       </c>
-      <c r="AP90" s="9" t="s">
-        <v>768</v>
-      </c>
-      <c r="AQ90" s="9" t="s">
-        <v>769</v>
-      </c>
-      <c r="AR90" s="9" t="s">
-        <v>643</v>
-      </c>
-      <c r="AS90" s="9" t="s">
-        <v>669</v>
-      </c>
-      <c r="AT90" s="9" t="s">
-        <v>756</v>
-      </c>
-      <c r="AU90" s="9" t="s">
-        <v>770</v>
-      </c>
-      <c r="AV90" s="9" t="s">
-        <v>771</v>
+      <c r="AP90" s="25">
+        <v>0.13</v>
+      </c>
+      <c r="AQ90" s="25">
+        <v>5.7</v>
+      </c>
+      <c r="AR90" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="AS90" s="25">
+        <v>2</v>
+      </c>
+      <c r="AT90" s="25">
+        <v>27</v>
+      </c>
+      <c r="AU90" s="25">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AV90" s="25">
+        <v>7.8</v>
       </c>
       <c r="AW90" s="9"/>
     </row>
@@ -48878,26 +48885,26 @@
       <c r="AO91" s="23">
         <v>0.23131459151809303</v>
       </c>
-      <c r="AP91" s="9" t="s">
-        <v>704</v>
-      </c>
-      <c r="AQ91" s="9" t="s">
-        <v>686</v>
-      </c>
-      <c r="AR91" s="9" t="s">
-        <v>674</v>
-      </c>
-      <c r="AS91" s="9" t="s">
-        <v>669</v>
-      </c>
-      <c r="AT91" s="9" t="s">
-        <v>756</v>
-      </c>
-      <c r="AU91" s="9" t="s">
-        <v>757</v>
-      </c>
-      <c r="AV91" s="9" t="s">
-        <v>758</v>
+      <c r="AP91" s="25">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AQ91" s="25">
+        <v>5.8</v>
+      </c>
+      <c r="AR91" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="AS91" s="25">
+        <v>2</v>
+      </c>
+      <c r="AT91" s="25">
+        <v>27</v>
+      </c>
+      <c r="AU91" s="25">
+        <v>0.32</v>
+      </c>
+      <c r="AV91" s="25">
+        <v>7.97</v>
       </c>
       <c r="AW91" s="9"/>
     </row>
@@ -49021,26 +49028,26 @@
       <c r="AO92" s="23">
         <v>0.18970476692572702</v>
       </c>
-      <c r="AP92" s="9" t="s">
-        <v>692</v>
-      </c>
-      <c r="AQ92" s="9" t="s">
-        <v>693</v>
-      </c>
-      <c r="AR92" s="9" t="s">
-        <v>694</v>
-      </c>
-      <c r="AS92" s="9" t="s">
-        <v>636</v>
-      </c>
-      <c r="AT92" s="9" t="s">
-        <v>695</v>
-      </c>
-      <c r="AU92" s="9" t="s">
-        <v>661</v>
-      </c>
-      <c r="AV92" s="9" t="s">
-        <v>647</v>
+      <c r="AP92" s="25">
+        <v>0.18</v>
+      </c>
+      <c r="AQ92" s="25">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="AR92" s="25">
+        <v>3.8</v>
+      </c>
+      <c r="AS92" s="25">
+        <v>3</v>
+      </c>
+      <c r="AT92" s="25">
+        <v>66</v>
+      </c>
+      <c r="AU92" s="25">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AV92" s="25">
+        <v>6.9</v>
       </c>
       <c r="AW92" s="9"/>
     </row>
@@ -49164,26 +49171,26 @@
       <c r="AO93" s="23">
         <v>0.21427710034702099</v>
       </c>
-      <c r="AP93" s="9" t="s">
-        <v>690</v>
-      </c>
-      <c r="AQ93" s="9" t="s">
-        <v>752</v>
-      </c>
-      <c r="AR93" s="9" t="s">
-        <v>753</v>
-      </c>
-      <c r="AS93" s="9" t="s">
-        <v>636</v>
-      </c>
-      <c r="AT93" s="9" t="s">
-        <v>754</v>
-      </c>
-      <c r="AU93" s="9" t="s">
-        <v>720</v>
-      </c>
-      <c r="AV93" s="9" t="s">
-        <v>755</v>
+      <c r="AP93" s="25">
+        <v>0.19</v>
+      </c>
+      <c r="AQ93" s="25">
+        <v>34.9</v>
+      </c>
+      <c r="AR93" s="25">
+        <v>3.7</v>
+      </c>
+      <c r="AS93" s="25">
+        <v>3</v>
+      </c>
+      <c r="AT93" s="25">
+        <v>69</v>
+      </c>
+      <c r="AU93" s="25">
+        <v>0.47</v>
+      </c>
+      <c r="AV93" s="25">
+        <v>6.99</v>
       </c>
       <c r="AW93" s="9"/>
     </row>
@@ -49307,26 +49314,26 @@
       <c r="AO94" s="23">
         <v>0.24293455997796601</v>
       </c>
-      <c r="AP94" s="9" t="s">
-        <v>880</v>
-      </c>
-      <c r="AQ94" s="9" t="s">
-        <v>963</v>
-      </c>
-      <c r="AR94" s="9" t="s">
-        <v>697</v>
-      </c>
-      <c r="AS94" s="9" t="s">
-        <v>636</v>
-      </c>
-      <c r="AT94" s="9" t="s">
-        <v>964</v>
-      </c>
-      <c r="AU94" s="9" t="s">
-        <v>868</v>
-      </c>
-      <c r="AV94" s="9" t="s">
-        <v>834</v>
+      <c r="AP94" s="25">
+        <v>0.08</v>
+      </c>
+      <c r="AQ94" s="25">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="AR94" s="25">
+        <v>3.9</v>
+      </c>
+      <c r="AS94" s="25">
+        <v>3</v>
+      </c>
+      <c r="AT94" s="25">
+        <v>65</v>
+      </c>
+      <c r="AU94" s="25">
+        <v>0.38</v>
+      </c>
+      <c r="AV94" s="25">
+        <v>6.9</v>
       </c>
       <c r="AW94" s="9"/>
     </row>
@@ -49595,26 +49602,26 @@
       <c r="AO96" s="23">
         <v>0.20556965854836298</v>
       </c>
-      <c r="AP96" s="9" t="s">
-        <v>843</v>
-      </c>
-      <c r="AQ96" s="9" t="s">
-        <v>866</v>
-      </c>
-      <c r="AR96" s="9" t="s">
-        <v>697</v>
-      </c>
-      <c r="AS96" s="9" t="s">
-        <v>669</v>
-      </c>
-      <c r="AT96" s="9" t="s">
-        <v>867</v>
-      </c>
-      <c r="AU96" s="9" t="s">
-        <v>868</v>
-      </c>
-      <c r="AV96" s="9" t="s">
-        <v>755</v>
+      <c r="AP96" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="AQ96" s="25">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="AR96" s="25">
+        <v>3.9</v>
+      </c>
+      <c r="AS96" s="25">
+        <v>2</v>
+      </c>
+      <c r="AT96" s="25">
+        <v>67</v>
+      </c>
+      <c r="AU96" s="25">
+        <v>0.38</v>
+      </c>
+      <c r="AV96" s="25">
+        <v>6.99</v>
       </c>
       <c r="AW96" s="9"/>
     </row>
@@ -49736,26 +49743,26 @@
       <c r="AO97" s="23">
         <v>0.25674128238757704</v>
       </c>
-      <c r="AP97" s="9" t="s">
-        <v>957</v>
-      </c>
-      <c r="AQ97" s="9" t="s">
-        <v>958</v>
-      </c>
-      <c r="AR97" s="9" t="s">
-        <v>959</v>
-      </c>
-      <c r="AS97" s="9" t="s">
-        <v>675</v>
-      </c>
-      <c r="AT97" s="9" t="s">
-        <v>952</v>
-      </c>
-      <c r="AU97" s="9" t="s">
-        <v>761</v>
-      </c>
-      <c r="AV97" s="9" t="s">
-        <v>960</v>
+      <c r="AP97" s="25">
+        <v>0.45</v>
+      </c>
+      <c r="AQ97" s="25">
+        <v>41.8</v>
+      </c>
+      <c r="AR97" s="25">
+        <v>3.1</v>
+      </c>
+      <c r="AS97" s="25">
+        <v>5</v>
+      </c>
+      <c r="AT97" s="25">
+        <v>94</v>
+      </c>
+      <c r="AU97" s="25">
+        <v>0.54</v>
+      </c>
+      <c r="AV97" s="25">
+        <v>7.23</v>
       </c>
       <c r="AW97" s="9"/>
     </row>
@@ -49877,26 +49884,26 @@
       <c r="AO98" s="23">
         <v>0.36848953731475598</v>
       </c>
-      <c r="AP98" s="9" t="s">
-        <v>875</v>
-      </c>
-      <c r="AQ98" s="9" t="s">
-        <v>971</v>
-      </c>
-      <c r="AR98" s="9" t="s">
-        <v>658</v>
-      </c>
-      <c r="AS98" s="9" t="s">
-        <v>675</v>
-      </c>
-      <c r="AT98" s="9" t="s">
-        <v>972</v>
-      </c>
-      <c r="AU98" s="9" t="s">
-        <v>714</v>
-      </c>
-      <c r="AV98" s="9" t="s">
-        <v>762</v>
+      <c r="AP98" s="25">
+        <v>0.42</v>
+      </c>
+      <c r="AQ98" s="25">
+        <v>37.9</v>
+      </c>
+      <c r="AR98" s="25">
+        <v>3.4</v>
+      </c>
+      <c r="AS98" s="25">
+        <v>5</v>
+      </c>
+      <c r="AT98" s="25">
+        <v>92</v>
+      </c>
+      <c r="AU98" s="25">
+        <v>0.44</v>
+      </c>
+      <c r="AV98" s="25">
+        <v>7.2</v>
       </c>
       <c r="AW98" s="9"/>
     </row>
@@ -50018,26 +50025,26 @@
       <c r="AO99" s="23">
         <v>0.42958234625244901</v>
       </c>
-      <c r="AP99" s="9" t="s">
-        <v>875</v>
-      </c>
-      <c r="AQ99" s="9" t="s">
-        <v>976</v>
-      </c>
-      <c r="AR99" s="9" t="s">
-        <v>977</v>
-      </c>
-      <c r="AS99" s="9" t="s">
-        <v>675</v>
-      </c>
-      <c r="AT99" s="9" t="s">
-        <v>978</v>
-      </c>
-      <c r="AU99" s="9" t="s">
-        <v>979</v>
-      </c>
-      <c r="AV99" s="9" t="s">
-        <v>980</v>
+      <c r="AP99" s="25">
+        <v>0.42</v>
+      </c>
+      <c r="AQ99" s="25">
+        <v>36.5</v>
+      </c>
+      <c r="AR99" s="25">
+        <v>3.6</v>
+      </c>
+      <c r="AS99" s="25">
+        <v>5</v>
+      </c>
+      <c r="AT99" s="25">
+        <v>82</v>
+      </c>
+      <c r="AU99" s="25">
+        <v>0.66</v>
+      </c>
+      <c r="AV99" s="25">
+        <v>7.21</v>
       </c>
       <c r="AW99" s="9"/>
     </row>
@@ -50304,29 +50311,29 @@
       <c r="AO101" s="23">
         <v>0.32980058085534802</v>
       </c>
-      <c r="AP101" s="9" t="s">
-        <v>685</v>
-      </c>
-      <c r="AQ101" s="9" t="s">
-        <v>686</v>
-      </c>
-      <c r="AR101" s="9" t="s">
-        <v>687</v>
-      </c>
-      <c r="AS101" s="9" t="s">
-        <v>688</v>
-      </c>
-      <c r="AT101" s="9" t="s">
-        <v>689</v>
-      </c>
-      <c r="AU101" s="9" t="s">
-        <v>690</v>
-      </c>
-      <c r="AV101" s="9" t="s">
-        <v>683</v>
-      </c>
-      <c r="AW101" s="9" t="s">
-        <v>691</v>
+      <c r="AP101" s="25">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AQ101" s="25">
+        <v>5.8</v>
+      </c>
+      <c r="AR101" s="25">
+        <v>2</v>
+      </c>
+      <c r="AS101" s="25">
+        <v>9</v>
+      </c>
+      <c r="AT101" s="25">
+        <v>86</v>
+      </c>
+      <c r="AU101" s="25">
+        <v>0.19</v>
+      </c>
+      <c r="AV101" s="25">
+        <v>6.3</v>
+      </c>
+      <c r="AW101" s="25">
+        <v>2.0000000000000001E-4</v>
       </c>
     </row>
     <row r="102" spans="1:49" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -50449,26 +50456,26 @@
       <c r="AO102" s="23">
         <v>0.19274014050702301</v>
       </c>
-      <c r="AP102" s="9" t="s">
-        <v>855</v>
-      </c>
-      <c r="AQ102" s="9" t="s">
-        <v>934</v>
-      </c>
-      <c r="AR102" s="9" t="s">
-        <v>935</v>
-      </c>
-      <c r="AS102" s="9" t="s">
-        <v>788</v>
-      </c>
-      <c r="AT102" s="9" t="s">
-        <v>660</v>
-      </c>
-      <c r="AU102" s="9" t="s">
-        <v>936</v>
-      </c>
-      <c r="AV102" s="9" t="s">
-        <v>834</v>
+      <c r="AP102" s="25">
+        <v>0.05</v>
+      </c>
+      <c r="AQ102" s="25">
+        <v>35.4</v>
+      </c>
+      <c r="AR102" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS102" s="25">
+        <v>12</v>
+      </c>
+      <c r="AT102" s="25">
+        <v>93</v>
+      </c>
+      <c r="AU102" s="25">
+        <v>0.88</v>
+      </c>
+      <c r="AV102" s="25">
+        <v>6.9</v>
       </c>
       <c r="AW102" s="9"/>
     </row>
@@ -50592,26 +50599,26 @@
       <c r="AO103" s="23">
         <v>0.57944882460921099</v>
       </c>
-      <c r="AP103" s="9" t="s">
-        <v>929</v>
-      </c>
-      <c r="AQ103" s="9" t="s">
-        <v>787</v>
-      </c>
-      <c r="AR103" s="9" t="s">
-        <v>674</v>
-      </c>
-      <c r="AS103" s="9" t="s">
-        <v>930</v>
-      </c>
-      <c r="AT103" s="9" t="s">
-        <v>695</v>
-      </c>
-      <c r="AU103" s="9" t="s">
-        <v>931</v>
-      </c>
-      <c r="AV103" s="9" t="s">
-        <v>925</v>
+      <c r="AP103" s="25">
+        <v>0.52</v>
+      </c>
+      <c r="AQ103" s="25">
+        <v>3.3</v>
+      </c>
+      <c r="AR103" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="AS103" s="25">
+        <v>13</v>
+      </c>
+      <c r="AT103" s="25">
+        <v>66</v>
+      </c>
+      <c r="AU103" s="25">
+        <v>0.69</v>
+      </c>
+      <c r="AV103" s="25">
+        <v>7.65</v>
       </c>
       <c r="AW103" s="9"/>
     </row>
@@ -50713,26 +50720,26 @@
       <c r="AO104" s="23">
         <v>0.37266494405519102</v>
       </c>
-      <c r="AP104" s="9" t="s">
-        <v>923</v>
-      </c>
-      <c r="AQ104" s="9" t="s">
-        <v>916</v>
-      </c>
-      <c r="AR104" s="9" t="s">
-        <v>708</v>
-      </c>
-      <c r="AS104" s="9" t="s">
-        <v>636</v>
-      </c>
-      <c r="AT104" s="9" t="s">
-        <v>828</v>
-      </c>
-      <c r="AU104" s="9" t="s">
-        <v>924</v>
-      </c>
-      <c r="AV104" s="9" t="s">
-        <v>925</v>
+      <c r="AP104" s="25">
+        <v>0.06</v>
+      </c>
+      <c r="AQ104" s="25">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AR104" s="25">
+        <v>1.3</v>
+      </c>
+      <c r="AS104" s="25">
+        <v>3</v>
+      </c>
+      <c r="AT104" s="25">
+        <v>37</v>
+      </c>
+      <c r="AU104" s="25">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AV104" s="25">
+        <v>7.65</v>
       </c>
       <c r="AW104" s="9"/>
     </row>
@@ -50856,26 +50863,26 @@
       <c r="AO105" s="23">
         <v>0.27348623381772497</v>
       </c>
-      <c r="AP105" s="9" t="s">
-        <v>741</v>
-      </c>
-      <c r="AQ105" s="9" t="s">
-        <v>742</v>
-      </c>
-      <c r="AR105" s="9" t="s">
-        <v>680</v>
-      </c>
-      <c r="AS105" s="9" t="s">
-        <v>675</v>
-      </c>
-      <c r="AT105" s="9" t="s">
-        <v>743</v>
-      </c>
-      <c r="AU105" s="9" t="s">
-        <v>706</v>
-      </c>
-      <c r="AV105" s="9" t="s">
-        <v>744</v>
+      <c r="AP105" s="25">
+        <v>0.32</v>
+      </c>
+      <c r="AQ105" s="25">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AR105" s="25">
+        <v>1.4</v>
+      </c>
+      <c r="AS105" s="25">
+        <v>5</v>
+      </c>
+      <c r="AT105" s="25">
+        <v>54</v>
+      </c>
+      <c r="AU105" s="25">
+        <v>0.38</v>
+      </c>
+      <c r="AV105" s="25">
+        <v>7.51</v>
       </c>
       <c r="AW105" s="9"/>
     </row>
@@ -50999,26 +51006,26 @@
       <c r="AO106" s="23">
         <v>0.32390113560594103</v>
       </c>
-      <c r="AP106" s="9" t="s">
-        <v>667</v>
-      </c>
-      <c r="AQ106" s="9" t="s">
-        <v>911</v>
-      </c>
-      <c r="AR106" s="9" t="s">
-        <v>912</v>
-      </c>
-      <c r="AS106" s="9" t="s">
-        <v>636</v>
-      </c>
-      <c r="AT106" s="9" t="s">
-        <v>913</v>
-      </c>
-      <c r="AU106" s="9" t="s">
-        <v>739</v>
-      </c>
-      <c r="AV106" s="9" t="s">
-        <v>914</v>
+      <c r="AP106" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="AQ106" s="25">
+        <v>4.2</v>
+      </c>
+      <c r="AR106" s="25">
+        <v>1.7</v>
+      </c>
+      <c r="AS106" s="25">
+        <v>3</v>
+      </c>
+      <c r="AT106" s="25">
+        <v>48</v>
+      </c>
+      <c r="AU106" s="25">
+        <v>0.41</v>
+      </c>
+      <c r="AV106" s="25">
+        <v>7.33</v>
       </c>
       <c r="AW106" s="9"/>
     </row>
@@ -51142,26 +51149,26 @@
       <c r="AO107" s="23">
         <v>0.63717866862914396</v>
       </c>
-      <c r="AP107" s="9" t="s">
-        <v>967</v>
-      </c>
-      <c r="AQ107" s="9" t="s">
-        <v>968</v>
-      </c>
-      <c r="AR107" s="9" t="s">
-        <v>687</v>
-      </c>
-      <c r="AS107" s="9" t="s">
-        <v>722</v>
-      </c>
-      <c r="AT107" s="9" t="s">
-        <v>969</v>
-      </c>
-      <c r="AU107" s="9" t="s">
-        <v>770</v>
-      </c>
-      <c r="AV107" s="9" t="s">
-        <v>970</v>
+      <c r="AP107" s="25">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AQ107" s="25">
+        <v>5.3</v>
+      </c>
+      <c r="AR107" s="25">
+        <v>2</v>
+      </c>
+      <c r="AS107" s="25">
+        <v>10</v>
+      </c>
+      <c r="AT107" s="25">
+        <v>59</v>
+      </c>
+      <c r="AU107" s="25">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AV107" s="25">
+        <v>7.56</v>
       </c>
       <c r="AW107" s="9"/>
     </row>
@@ -51287,26 +51294,26 @@
       <c r="AO108" s="23">
         <v>0.21471146590029599</v>
       </c>
-      <c r="AP108" s="9" t="s">
-        <v>700</v>
-      </c>
-      <c r="AQ108" s="9" t="s">
-        <v>701</v>
-      </c>
-      <c r="AR108" s="9" t="s">
-        <v>694</v>
-      </c>
-      <c r="AS108" s="9" t="s">
-        <v>675</v>
-      </c>
-      <c r="AT108" s="9" t="s">
-        <v>702</v>
-      </c>
-      <c r="AU108" s="9" t="s">
-        <v>703</v>
-      </c>
-      <c r="AV108" s="9" t="s">
-        <v>672</v>
+      <c r="AP108" s="25">
+        <v>0.59</v>
+      </c>
+      <c r="AQ108" s="25">
+        <v>2.6</v>
+      </c>
+      <c r="AR108" s="25">
+        <v>3.8</v>
+      </c>
+      <c r="AS108" s="25">
+        <v>5</v>
+      </c>
+      <c r="AT108" s="25">
+        <v>53</v>
+      </c>
+      <c r="AU108" s="25">
+        <v>0.69</v>
+      </c>
+      <c r="AV108" s="25">
+        <v>6.7</v>
       </c>
       <c r="AW108" s="9"/>
     </row>
@@ -51430,26 +51437,26 @@
       <c r="AO109" s="23">
         <v>0.77061526314605699</v>
       </c>
-      <c r="AP109" s="9" t="s">
-        <v>721</v>
-      </c>
-      <c r="AQ109" s="9" t="s">
-        <v>681</v>
-      </c>
-      <c r="AR109" s="9" t="s">
-        <v>669</v>
-      </c>
-      <c r="AS109" s="9" t="s">
-        <v>722</v>
-      </c>
-      <c r="AT109" s="9" t="s">
-        <v>723</v>
-      </c>
-      <c r="AU109" s="9" t="s">
-        <v>724</v>
-      </c>
-      <c r="AV109" s="9" t="s">
-        <v>725</v>
+      <c r="AP109" s="25">
+        <v>0.34</v>
+      </c>
+      <c r="AQ109" s="25">
+        <v>4</v>
+      </c>
+      <c r="AR109" s="25">
+        <v>2</v>
+      </c>
+      <c r="AS109" s="25">
+        <v>10</v>
+      </c>
+      <c r="AT109" s="25">
+        <v>63</v>
+      </c>
+      <c r="AU109" s="25">
+        <v>0.47</v>
+      </c>
+      <c r="AV109" s="25">
+        <v>7.77</v>
       </c>
       <c r="AW109" s="9"/>
     </row>
@@ -51718,26 +51725,26 @@
       <c r="AO111" s="23">
         <v>0.74029013239206398</v>
       </c>
-      <c r="AP111" s="9" t="s">
-        <v>641</v>
-      </c>
-      <c r="AQ111" s="9" t="s">
-        <v>642</v>
-      </c>
-      <c r="AR111" s="9" t="s">
-        <v>643</v>
-      </c>
-      <c r="AS111" s="9" t="s">
-        <v>644</v>
-      </c>
-      <c r="AT111" s="9" t="s">
-        <v>645</v>
-      </c>
-      <c r="AU111" s="9" t="s">
-        <v>646</v>
-      </c>
-      <c r="AV111" s="9" t="s">
-        <v>647</v>
+      <c r="AP111" s="25">
+        <v>0.24</v>
+      </c>
+      <c r="AQ111" s="25">
+        <v>2.1</v>
+      </c>
+      <c r="AR111" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="AS111" s="25">
+        <v>8</v>
+      </c>
+      <c r="AT111" s="25">
+        <v>239</v>
+      </c>
+      <c r="AU111" s="25">
+        <v>0.54</v>
+      </c>
+      <c r="AV111" s="25">
+        <v>6.9</v>
       </c>
       <c r="AW111" s="9"/>
     </row>
@@ -51861,26 +51868,26 @@
       <c r="AO112" s="23">
         <v>0.73937707264722496</v>
       </c>
-      <c r="AP112" s="9" t="s">
-        <v>648</v>
-      </c>
-      <c r="AQ112" s="9" t="s">
-        <v>642</v>
-      </c>
-      <c r="AR112" s="9" t="s">
-        <v>643</v>
-      </c>
-      <c r="AS112" s="9" t="s">
-        <v>644</v>
-      </c>
-      <c r="AT112" s="9" t="s">
-        <v>649</v>
-      </c>
-      <c r="AU112" s="9" t="s">
-        <v>650</v>
-      </c>
-      <c r="AV112" s="9" t="s">
-        <v>647</v>
+      <c r="AP112" s="25">
+        <v>0.25</v>
+      </c>
+      <c r="AQ112" s="25">
+        <v>2.1</v>
+      </c>
+      <c r="AR112" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="AS112" s="25">
+        <v>8</v>
+      </c>
+      <c r="AT112" s="25">
+        <v>267</v>
+      </c>
+      <c r="AU112" s="25">
+        <v>0.44</v>
+      </c>
+      <c r="AV112" s="25">
+        <v>6.9</v>
       </c>
       <c r="AW112" s="9"/>
     </row>
@@ -52004,26 +52011,26 @@
       <c r="AO113" s="23">
         <v>0.52982659718833203</v>
       </c>
-      <c r="AP113" s="9" t="s">
-        <v>651</v>
-      </c>
-      <c r="AQ113" s="9" t="s">
-        <v>652</v>
-      </c>
-      <c r="AR113" s="9" t="s">
-        <v>653</v>
-      </c>
-      <c r="AS113" s="9" t="s">
-        <v>654</v>
-      </c>
-      <c r="AT113" s="9" t="s">
-        <v>655</v>
-      </c>
-      <c r="AU113" s="9" t="s">
-        <v>646</v>
-      </c>
-      <c r="AV113" s="9" t="s">
-        <v>639</v>
+      <c r="AP113" s="25">
+        <v>0.12</v>
+      </c>
+      <c r="AQ113" s="25">
+        <v>2.9</v>
+      </c>
+      <c r="AR113" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="AS113" s="25">
+        <v>11</v>
+      </c>
+      <c r="AT113" s="25">
+        <v>168</v>
+      </c>
+      <c r="AU113" s="25">
+        <v>0.54</v>
+      </c>
+      <c r="AV113" s="25">
+        <v>7.1</v>
       </c>
       <c r="AW113" s="9"/>
     </row>
@@ -52437,26 +52444,26 @@
       <c r="AO116" s="23">
         <v>0.42849683680818601</v>
       </c>
-      <c r="AP116" s="9" t="s">
-        <v>855</v>
-      </c>
-      <c r="AQ116" s="9" t="s">
-        <v>856</v>
-      </c>
-      <c r="AR116" s="9" t="s">
-        <v>857</v>
-      </c>
-      <c r="AS116" s="9" t="s">
-        <v>681</v>
-      </c>
-      <c r="AT116" s="9" t="s">
-        <v>858</v>
-      </c>
-      <c r="AU116" s="9" t="s">
-        <v>859</v>
-      </c>
-      <c r="AV116" s="9" t="s">
-        <v>740</v>
+      <c r="AP116" s="25">
+        <v>0.05</v>
+      </c>
+      <c r="AQ116" s="25">
+        <v>12.9</v>
+      </c>
+      <c r="AR116" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="AS116" s="25">
+        <v>4</v>
+      </c>
+      <c r="AT116" s="25">
+        <v>28</v>
+      </c>
+      <c r="AU116" s="25">
+        <v>0.25</v>
+      </c>
+      <c r="AV116" s="25">
+        <v>8.18</v>
       </c>
       <c r="AW116" s="9"/>
     </row>
@@ -52580,24 +52587,24 @@
       <c r="AO117" s="23">
         <v>0.32585233388986096</v>
       </c>
-      <c r="AP117" s="9" t="s">
-        <v>860</v>
-      </c>
-      <c r="AQ117" s="9" t="s">
-        <v>861</v>
+      <c r="AP117" s="25">
+        <v>0.04</v>
+      </c>
+      <c r="AQ117" s="25">
+        <v>12.6</v>
       </c>
       <c r="AR117" s="9"/>
-      <c r="AS117" s="9" t="s">
-        <v>636</v>
-      </c>
-      <c r="AT117" s="9" t="s">
-        <v>862</v>
-      </c>
-      <c r="AU117" s="9" t="s">
-        <v>739</v>
-      </c>
-      <c r="AV117" s="9" t="s">
-        <v>863</v>
+      <c r="AS117" s="25">
+        <v>3</v>
+      </c>
+      <c r="AT117" s="25">
+        <v>26</v>
+      </c>
+      <c r="AU117" s="25">
+        <v>0.41</v>
+      </c>
+      <c r="AV117" s="25">
+        <v>8.2100000000000009</v>
       </c>
       <c r="AW117" s="9"/>
     </row>
@@ -52721,24 +52728,24 @@
       <c r="AO118" s="23">
         <v>0.33243799924939399</v>
       </c>
-      <c r="AP118" s="9" t="s">
-        <v>860</v>
-      </c>
-      <c r="AQ118" s="9" t="s">
-        <v>861</v>
+      <c r="AP118" s="25">
+        <v>0.04</v>
+      </c>
+      <c r="AQ118" s="25">
+        <v>12.6</v>
       </c>
       <c r="AR118" s="9"/>
-      <c r="AS118" s="9" t="s">
-        <v>636</v>
-      </c>
-      <c r="AT118" s="9" t="s">
-        <v>805</v>
-      </c>
-      <c r="AU118" s="9" t="s">
-        <v>864</v>
-      </c>
-      <c r="AV118" s="9" t="s">
-        <v>865</v>
+      <c r="AS118" s="25">
+        <v>3</v>
+      </c>
+      <c r="AT118" s="25">
+        <v>25</v>
+      </c>
+      <c r="AU118" s="25">
+        <v>0.13</v>
+      </c>
+      <c r="AV118" s="25">
+        <v>8.1999999999999993</v>
       </c>
       <c r="AW118" s="9"/>
     </row>
@@ -53294,23 +53301,23 @@
         <v>0.41758460608660103</v>
       </c>
       <c r="AP122" s="9"/>
-      <c r="AQ122" s="9" t="s">
-        <v>673</v>
-      </c>
-      <c r="AR122" s="9" t="s">
-        <v>674</v>
-      </c>
-      <c r="AS122" s="9" t="s">
-        <v>675</v>
-      </c>
-      <c r="AT122" s="9" t="s">
-        <v>676</v>
-      </c>
-      <c r="AU122" s="9" t="s">
-        <v>677</v>
-      </c>
-      <c r="AV122" s="9" t="s">
-        <v>678</v>
+      <c r="AQ122" s="25">
+        <v>7.3</v>
+      </c>
+      <c r="AR122" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="AS122" s="25">
+        <v>5</v>
+      </c>
+      <c r="AT122" s="25">
+        <v>19</v>
+      </c>
+      <c r="AU122" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="AV122" s="25">
+        <v>6.5</v>
       </c>
       <c r="AW122" s="9"/>
     </row>
@@ -53434,26 +53441,26 @@
       <c r="AO123" s="23">
         <v>3.4889331066295805E-2</v>
       </c>
-      <c r="AP123" s="9" t="s">
-        <v>667</v>
-      </c>
-      <c r="AQ123" s="9" t="s">
-        <v>643</v>
-      </c>
-      <c r="AR123" s="9" t="s">
-        <v>668</v>
-      </c>
-      <c r="AS123" s="9" t="s">
-        <v>669</v>
-      </c>
-      <c r="AT123" s="9" t="s">
-        <v>670</v>
-      </c>
-      <c r="AU123" s="9" t="s">
-        <v>671</v>
-      </c>
-      <c r="AV123" s="9" t="s">
-        <v>672</v>
+      <c r="AP123" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="AQ123" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="AR123" s="25">
+        <v>0.7</v>
+      </c>
+      <c r="AS123" s="25">
+        <v>2</v>
+      </c>
+      <c r="AT123" s="25">
+        <v>22</v>
+      </c>
+      <c r="AU123" s="25">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AV123" s="25">
+        <v>6.7</v>
       </c>
       <c r="AW123" s="9"/>
     </row>
@@ -53575,26 +53582,26 @@
       <c r="AO124" s="23">
         <v>0.21145671304892702</v>
       </c>
-      <c r="AP124" s="9" t="s">
-        <v>779</v>
-      </c>
-      <c r="AQ124" s="9" t="s">
-        <v>818</v>
-      </c>
-      <c r="AR124" s="9" t="s">
-        <v>819</v>
-      </c>
-      <c r="AS124" s="9" t="s">
-        <v>820</v>
-      </c>
-      <c r="AT124" s="9" t="s">
-        <v>702</v>
-      </c>
-      <c r="AU124" s="9" t="s">
-        <v>791</v>
-      </c>
-      <c r="AV124" s="9" t="s">
-        <v>821</v>
+      <c r="AP124" s="25">
+        <v>0.19</v>
+      </c>
+      <c r="AQ124" s="25">
+        <v>25.3</v>
+      </c>
+      <c r="AR124" s="25">
+        <v>2.4</v>
+      </c>
+      <c r="AS124" s="25">
+        <v>7</v>
+      </c>
+      <c r="AT124" s="25">
+        <v>53</v>
+      </c>
+      <c r="AU124" s="25">
+        <v>0.22</v>
+      </c>
+      <c r="AV124" s="25">
+        <v>7.07</v>
       </c>
       <c r="AW124" s="9"/>
     </row>
@@ -53716,26 +53723,26 @@
       <c r="AO125" s="23">
         <v>0.23535136525026198</v>
       </c>
-      <c r="AP125" s="9" t="s">
-        <v>915</v>
-      </c>
-      <c r="AQ125" s="9" t="s">
-        <v>961</v>
-      </c>
-      <c r="AR125" s="9" t="s">
-        <v>705</v>
-      </c>
-      <c r="AS125" s="9" t="s">
-        <v>737</v>
-      </c>
-      <c r="AT125" s="9" t="s">
-        <v>949</v>
-      </c>
-      <c r="AU125" s="9" t="s">
-        <v>646</v>
-      </c>
-      <c r="AV125" s="9" t="s">
-        <v>962</v>
+      <c r="AP125" s="25">
+        <v>0.11</v>
+      </c>
+      <c r="AQ125" s="25">
+        <v>26.6</v>
+      </c>
+      <c r="AR125" s="25">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AS125" s="25">
+        <v>7</v>
+      </c>
+      <c r="AT125" s="25">
+        <v>31</v>
+      </c>
+      <c r="AU125" s="25">
+        <v>0.54</v>
+      </c>
+      <c r="AV125" s="25">
+        <v>7.06</v>
       </c>
       <c r="AW125" s="9"/>
     </row>
@@ -53859,26 +53866,26 @@
       <c r="AO126" s="23">
         <v>1.0184019271603</v>
       </c>
-      <c r="AP126" s="9" t="s">
-        <v>651</v>
-      </c>
-      <c r="AQ126" s="9" t="s">
-        <v>842</v>
-      </c>
-      <c r="AR126" s="9" t="s">
-        <v>748</v>
-      </c>
-      <c r="AS126" s="9" t="s">
-        <v>681</v>
-      </c>
-      <c r="AT126" s="9" t="s">
-        <v>975</v>
-      </c>
-      <c r="AU126" s="9" t="s">
-        <v>714</v>
-      </c>
-      <c r="AV126" s="9" t="s">
-        <v>909</v>
+      <c r="AP126" s="25">
+        <v>0.12</v>
+      </c>
+      <c r="AQ126" s="25">
+        <v>2.4</v>
+      </c>
+      <c r="AR126" s="25">
+        <v>1.8</v>
+      </c>
+      <c r="AS126" s="25">
+        <v>4</v>
+      </c>
+      <c r="AT126" s="25">
+        <v>41</v>
+      </c>
+      <c r="AU126" s="25">
+        <v>0.44</v>
+      </c>
+      <c r="AV126" s="25">
+        <v>7.09</v>
       </c>
       <c r="AW126" s="9"/>
     </row>
@@ -54000,26 +54007,26 @@
       <c r="AO127" s="23">
         <v>0.150042261777249</v>
       </c>
-      <c r="AP127" s="9" t="s">
-        <v>776</v>
-      </c>
-      <c r="AQ127" s="9" t="s">
-        <v>965</v>
-      </c>
-      <c r="AR127" s="9" t="s">
-        <v>658</v>
-      </c>
-      <c r="AS127" s="9" t="s">
-        <v>783</v>
-      </c>
-      <c r="AT127" s="9" t="s">
-        <v>966</v>
-      </c>
-      <c r="AU127" s="9" t="s">
-        <v>741</v>
-      </c>
-      <c r="AV127" s="9" t="s">
-        <v>840</v>
+      <c r="AP127" s="25">
+        <v>0.17</v>
+      </c>
+      <c r="AQ127" s="25">
+        <v>16.7</v>
+      </c>
+      <c r="AR127" s="25">
+        <v>3.4</v>
+      </c>
+      <c r="AS127" s="25">
+        <v>26</v>
+      </c>
+      <c r="AT127" s="25">
+        <v>89</v>
+      </c>
+      <c r="AU127" s="25">
+        <v>0.32</v>
+      </c>
+      <c r="AV127" s="25">
+        <v>7.41</v>
       </c>
       <c r="AW127" s="9"/>
     </row>
@@ -54143,29 +54150,29 @@
       <c r="AO128" s="23">
         <v>0.10375480131469701</v>
       </c>
-      <c r="AP128" s="9" t="s">
-        <v>690</v>
-      </c>
-      <c r="AQ128" s="9" t="s">
-        <v>731</v>
-      </c>
-      <c r="AR128" s="9" t="s">
-        <v>732</v>
-      </c>
-      <c r="AS128" s="9" t="s">
-        <v>681</v>
-      </c>
-      <c r="AT128" s="9" t="s">
-        <v>702</v>
-      </c>
-      <c r="AU128" s="9" t="s">
-        <v>733</v>
-      </c>
-      <c r="AV128" s="9" t="s">
-        <v>734</v>
-      </c>
-      <c r="AW128" s="9" t="s">
-        <v>735</v>
+      <c r="AP128" s="25">
+        <v>0.19</v>
+      </c>
+      <c r="AQ128" s="25">
+        <v>11.3</v>
+      </c>
+      <c r="AR128" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="AS128" s="25">
+        <v>4</v>
+      </c>
+      <c r="AT128" s="25">
+        <v>53</v>
+      </c>
+      <c r="AU128" s="25">
+        <v>0.35</v>
+      </c>
+      <c r="AV128" s="25">
+        <v>7.11</v>
+      </c>
+      <c r="AW128" s="25">
+        <v>2.0999999999999999E-3</v>
       </c>
     </row>
     <row r="129" spans="1:49" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -54289,26 +54296,26 @@
         <v>0.10857277433700699</v>
       </c>
       <c r="AP129" s="9"/>
-      <c r="AQ129" s="9" t="s">
-        <v>707</v>
-      </c>
-      <c r="AR129" s="9" t="s">
-        <v>708</v>
-      </c>
-      <c r="AS129" s="9" t="s">
-        <v>636</v>
-      </c>
-      <c r="AT129" s="9" t="s">
-        <v>709</v>
-      </c>
-      <c r="AU129" s="9" t="s">
-        <v>706</v>
-      </c>
-      <c r="AV129" s="9" t="s">
-        <v>699</v>
-      </c>
-      <c r="AW129" s="9" t="s">
-        <v>710</v>
+      <c r="AQ129" s="25">
+        <v>8</v>
+      </c>
+      <c r="AR129" s="25">
+        <v>1.3</v>
+      </c>
+      <c r="AS129" s="25">
+        <v>3</v>
+      </c>
+      <c r="AT129" s="25">
+        <v>57</v>
+      </c>
+      <c r="AU129" s="25">
+        <v>0.38</v>
+      </c>
+      <c r="AV129" s="25">
+        <v>6.8</v>
+      </c>
+      <c r="AW129" s="25">
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="130" spans="1:49" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -54431,29 +54438,29 @@
       <c r="AO130" s="23">
         <v>9.7570861683153001E-2</v>
       </c>
-      <c r="AP130" s="9" t="s">
-        <v>667</v>
-      </c>
-      <c r="AQ130" s="9" t="s">
-        <v>903</v>
-      </c>
-      <c r="AR130" s="9" t="s">
-        <v>904</v>
-      </c>
-      <c r="AS130" s="9" t="s">
-        <v>636</v>
-      </c>
-      <c r="AT130" s="9" t="s">
-        <v>905</v>
-      </c>
-      <c r="AU130" s="9" t="s">
-        <v>779</v>
-      </c>
-      <c r="AV130" s="9" t="s">
-        <v>873</v>
-      </c>
-      <c r="AW130" s="9" t="s">
-        <v>751</v>
+      <c r="AP130" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="AQ130" s="25">
+        <v>10.9</v>
+      </c>
+      <c r="AR130" s="25">
+        <v>1.6</v>
+      </c>
+      <c r="AS130" s="25">
+        <v>3</v>
+      </c>
+      <c r="AT130" s="25">
+        <v>54</v>
+      </c>
+      <c r="AU130" s="25">
+        <v>0.19</v>
+      </c>
+      <c r="AV130" s="25">
+        <v>7.08</v>
+      </c>
+      <c r="AW130" s="25">
+        <v>2E-3</v>
       </c>
     </row>
     <row r="131" spans="1:49" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -54576,29 +54583,29 @@
       <c r="AO131" s="23">
         <v>8.3594171077405105E-2</v>
       </c>
-      <c r="AP131" s="9" t="s">
-        <v>633</v>
-      </c>
-      <c r="AQ131" s="9" t="s">
-        <v>679</v>
-      </c>
-      <c r="AR131" s="9" t="s">
-        <v>680</v>
-      </c>
-      <c r="AS131" s="9" t="s">
-        <v>681</v>
-      </c>
-      <c r="AT131" s="9" t="s">
-        <v>682</v>
-      </c>
-      <c r="AU131" s="9" t="s">
-        <v>648</v>
-      </c>
-      <c r="AV131" s="9" t="s">
-        <v>683</v>
-      </c>
-      <c r="AW131" s="9" t="s">
-        <v>684</v>
+      <c r="AP131" s="25">
+        <v>0.16</v>
+      </c>
+      <c r="AQ131" s="25">
+        <v>11.1</v>
+      </c>
+      <c r="AR131" s="25">
+        <v>1.4</v>
+      </c>
+      <c r="AS131" s="25">
+        <v>4</v>
+      </c>
+      <c r="AT131" s="25">
+        <v>52</v>
+      </c>
+      <c r="AU131" s="25">
+        <v>0.25</v>
+      </c>
+      <c r="AV131" s="25">
+        <v>6.3</v>
+      </c>
+      <c r="AW131" s="25">
+        <v>1.4E-3</v>
       </c>
     </row>
     <row r="132" spans="1:49" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -54721,29 +54728,29 @@
       <c r="AO132" s="23">
         <v>9.5361694365188598E-2</v>
       </c>
-      <c r="AP132" s="9" t="s">
-        <v>692</v>
-      </c>
-      <c r="AQ132" s="9" t="s">
-        <v>773</v>
-      </c>
-      <c r="AR132" s="9" t="s">
-        <v>732</v>
-      </c>
-      <c r="AS132" s="9" t="s">
-        <v>681</v>
-      </c>
-      <c r="AT132" s="9" t="s">
-        <v>774</v>
-      </c>
-      <c r="AU132" s="9" t="s">
-        <v>720</v>
-      </c>
-      <c r="AV132" s="9" t="s">
-        <v>775</v>
-      </c>
-      <c r="AW132" s="9" t="s">
-        <v>751</v>
+      <c r="AP132" s="25">
+        <v>0.18</v>
+      </c>
+      <c r="AQ132" s="25">
+        <v>11</v>
+      </c>
+      <c r="AR132" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="AS132" s="25">
+        <v>4</v>
+      </c>
+      <c r="AT132" s="25">
+        <v>68</v>
+      </c>
+      <c r="AU132" s="25">
+        <v>0.47</v>
+      </c>
+      <c r="AV132" s="25">
+        <v>7.37</v>
+      </c>
+      <c r="AW132" s="25">
+        <v>2E-3</v>
       </c>
     </row>
     <row r="133" spans="1:49" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -54866,29 +54873,29 @@
       <c r="AO133" s="23">
         <v>9.4182099460426202E-2</v>
       </c>
-      <c r="AP133" s="9" t="s">
-        <v>809</v>
-      </c>
-      <c r="AQ133" s="9" t="s">
-        <v>810</v>
-      </c>
-      <c r="AR133" s="9" t="s">
-        <v>793</v>
-      </c>
-      <c r="AS133" s="9" t="s">
-        <v>811</v>
-      </c>
-      <c r="AT133" s="9" t="s">
-        <v>812</v>
-      </c>
-      <c r="AU133" s="9" t="s">
-        <v>791</v>
-      </c>
-      <c r="AV133" s="9" t="s">
-        <v>813</v>
-      </c>
-      <c r="AW133" s="9" t="s">
-        <v>814</v>
+      <c r="AP133" s="25">
+        <v>0.18</v>
+      </c>
+      <c r="AQ133" s="25">
+        <v>5.9</v>
+      </c>
+      <c r="AR133" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="AS133" s="25">
+        <v>2</v>
+      </c>
+      <c r="AT133" s="25">
+        <v>75</v>
+      </c>
+      <c r="AU133" s="25">
+        <v>0.22</v>
+      </c>
+      <c r="AV133" s="25">
+        <v>7.2</v>
+      </c>
+      <c r="AW133" s="25">
+        <v>1.6000000000000001E-3</v>
       </c>
     </row>
     <row r="134" spans="1:49" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -55011,29 +55018,29 @@
       <c r="AO134" s="23">
         <v>7.4268095821670696E-2</v>
       </c>
-      <c r="AP134" s="9" t="s">
-        <v>791</v>
-      </c>
-      <c r="AQ134" s="9" t="s">
-        <v>798</v>
-      </c>
-      <c r="AR134" s="9" t="s">
-        <v>799</v>
-      </c>
-      <c r="AS134" s="9" t="s">
-        <v>800</v>
-      </c>
-      <c r="AT134" s="9" t="s">
-        <v>774</v>
-      </c>
-      <c r="AU134" s="9" t="s">
-        <v>801</v>
-      </c>
-      <c r="AV134" s="9" t="s">
-        <v>647</v>
-      </c>
-      <c r="AW134" s="9" t="s">
-        <v>751</v>
+      <c r="AP134" s="25">
+        <v>0.22</v>
+      </c>
+      <c r="AQ134" s="25">
+        <v>10.3</v>
+      </c>
+      <c r="AR134" s="25">
+        <v>1.9</v>
+      </c>
+      <c r="AS134" s="25">
+        <v>4</v>
+      </c>
+      <c r="AT134" s="25">
+        <v>68</v>
+      </c>
+      <c r="AU134" s="25">
+        <v>0.35</v>
+      </c>
+      <c r="AV134" s="25">
+        <v>6.9</v>
+      </c>
+      <c r="AW134" s="25">
+        <v>2E-3</v>
       </c>
     </row>
     <row r="135" spans="1:49" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -55156,29 +55163,29 @@
       <c r="AO135" s="23">
         <v>6.8437030680850802E-2</v>
       </c>
-      <c r="AP135" s="9" t="s">
-        <v>692</v>
-      </c>
-      <c r="AQ135" s="9" t="s">
-        <v>747</v>
-      </c>
-      <c r="AR135" s="9" t="s">
-        <v>748</v>
-      </c>
-      <c r="AS135" s="9" t="s">
-        <v>681</v>
-      </c>
-      <c r="AT135" s="9" t="s">
-        <v>749</v>
-      </c>
-      <c r="AU135" s="9" t="s">
-        <v>706</v>
-      </c>
-      <c r="AV135" s="9" t="s">
-        <v>750</v>
-      </c>
-      <c r="AW135" s="9" t="s">
-        <v>751</v>
+      <c r="AP135" s="25">
+        <v>0.18</v>
+      </c>
+      <c r="AQ135" s="25">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="AR135" s="25">
+        <v>1.8</v>
+      </c>
+      <c r="AS135" s="25">
+        <v>4</v>
+      </c>
+      <c r="AT135" s="25">
+        <v>58</v>
+      </c>
+      <c r="AU135" s="25">
+        <v>0.38</v>
+      </c>
+      <c r="AV135" s="25">
+        <v>7.13</v>
+      </c>
+      <c r="AW135" s="25">
+        <v>2E-3</v>
       </c>
     </row>
     <row r="136" spans="1:49" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -55327,6 +55334,11 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AW136">
+    <sortState ref="A2:AW136">
+      <sortCondition descending="1" ref="A1:A136"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/2. 연구사업(2023년)/6. 분석결과/data_raw/1. 통합 분석결과.xlsx
+++ b/2. 연구사업(2023년)/6. 분석결과/data_raw/1. 통합 분석결과.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Study\2. 연구사업(2023년)\6. 분석결과\data_raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Study\2. 연구사업(2023년)\6. 분석결과\data_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6676D751-F745-4ACE-A2A2-DB2B0306F091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3499,7 +3498,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;_-;_-@_-"/>
@@ -3621,7 +3620,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3683,11 +3682,17 @@
     <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="쉼표 [0] 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="쉼표 [0] 2" xfId="2"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="표준 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3703,9 +3708,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3743,9 +3748,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3780,7 +3785,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3815,7 +3820,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3988,7 +3993,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -26483,7 +26488,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -36206,14 +36211,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="X5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AK27" sqref="AK27"/>
+      <selection pane="bottomRight" activeCell="H35" sqref="H2:H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.125" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -36701,28 +36706,28 @@
       <c r="E4" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="21" t="s">
         <v>415</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="21" t="s">
         <v>469</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="22">
         <v>85.184411797398468</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="22">
         <v>1.6981872011130621</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="22">
         <v>22.590447521144199</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="22">
         <v>13.739680631928245</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="22">
         <v>35.987565095628931</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="22">
         <v>16.822027428300789</v>
       </c>
       <c r="N4" s="2">
@@ -38527,28 +38532,28 @@
       <c r="E18" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="21" t="s">
         <v>550</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="21" t="s">
         <v>483</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="22">
         <v>84.119787242934223</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="22">
         <v>1.6909126875464551</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="22">
         <v>22.442235295760469</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="22">
         <v>13.085898585696114</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="22">
         <v>35.01471271342087</v>
       </c>
-      <c r="M18" s="4">
+      <c r="M18" s="22">
         <v>16.367277310761448</v>
       </c>
       <c r="N18" s="2">
@@ -39621,28 +39626,28 @@
       <c r="E26" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="21" t="s">
         <v>431</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="G26" s="21" t="s">
         <v>491</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="22">
         <v>84.638485956063747</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26" s="22">
         <v>1.670970975279267</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26" s="22">
         <v>22.453518826297941</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="22">
         <v>13.329393008444431</v>
       </c>
-      <c r="L26" s="4">
+      <c r="L26" s="22">
         <v>35.831205153175063</v>
       </c>
-      <c r="M26" s="4">
+      <c r="M26" s="22">
         <v>16.748938536800157</v>
       </c>
       <c r="N26" s="2">
@@ -39766,28 +39771,28 @@
       <c r="E27" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="21" t="s">
         <v>551</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="G27" s="21" t="s">
         <v>492</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="22">
         <v>36.391507073852054</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I27" s="22">
         <v>0.80630126045541017</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27" s="22">
         <v>8.8944899393648313</v>
       </c>
-      <c r="K27" s="4">
+      <c r="K27" s="22">
         <v>10.743863417891905</v>
       </c>
-      <c r="L27" s="4">
+      <c r="L27" s="22">
         <v>13.012081109938435</v>
       </c>
-      <c r="M27" s="4">
+      <c r="M27" s="22">
         <v>6.0823671940296222</v>
       </c>
       <c r="N27" s="2">
@@ -55323,8 +55328,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AW136" xr:uid="{00000000-0009-0000-0000-000002000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AW136">
+  <autoFilter ref="A1:AW136">
+    <sortState ref="A2:AW136">
       <sortCondition descending="1" ref="A1:A136"/>
     </sortState>
   </autoFilter>

--- a/2. 연구사업(2023년)/6. 분석결과/data_raw/1. 통합 분석결과.xlsx
+++ b/2. 연구사업(2023년)/6. 분석결과/data_raw/1. 통합 분석결과.xlsx
@@ -3505,7 +3505,7 @@
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="178" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3578,6 +3578,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3620,7 +3629,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3686,6 +3695,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -36215,10 +36230,10 @@
   <dimension ref="A1:AW136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H35" sqref="H2:H35"/>
+      <selection pane="bottomRight" activeCell="T83" sqref="T83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.125" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -37895,28 +37910,28 @@
       <c r="E13" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="23" t="s">
         <v>548</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="23" t="s">
         <v>478</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="24">
         <v>67.124495783588827</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="24">
         <v>20.97358492521246</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="24">
         <v>8.1463956708326002</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="24">
         <v>9.7558116909933332</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="24">
         <v>0.42529530141211647</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="24">
         <v>0.19880003569207969</v>
       </c>
       <c r="N13" s="2">
@@ -48060,28 +48075,28 @@
       <c r="E86" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F86" s="7" t="s">
+      <c r="F86" s="21" t="s">
         <v>456</v>
       </c>
-      <c r="G86" s="7" t="s">
+      <c r="G86" s="21" t="s">
         <v>526</v>
       </c>
-      <c r="H86" s="4">
+      <c r="H86" s="22">
         <v>3.7601008332122703</v>
       </c>
-      <c r="I86" s="4">
+      <c r="I86" s="22">
         <v>2.3250594448728048</v>
       </c>
-      <c r="J86" s="4">
+      <c r="J86" s="22">
         <v>6.0839807558281302</v>
       </c>
-      <c r="K86" s="4">
+      <c r="K86" s="22">
         <v>3.229540934034274</v>
       </c>
-      <c r="L86" s="4">
+      <c r="L86" s="22">
         <v>30.472172544535447</v>
       </c>
-      <c r="M86" s="4">
+      <c r="M86" s="22">
         <v>14.243912334217649</v>
       </c>
       <c r="N86" s="2">
@@ -48203,28 +48218,28 @@
       <c r="E87" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F87" s="7" t="s">
+      <c r="F87" s="21" t="s">
         <v>456</v>
       </c>
-      <c r="G87" s="7" t="s">
+      <c r="G87" s="21" t="s">
         <v>526</v>
       </c>
-      <c r="H87" s="4">
+      <c r="H87" s="22">
         <v>3.4749620553085618</v>
       </c>
-      <c r="I87" s="4">
+      <c r="I87" s="22">
         <v>2.2424469208219571</v>
       </c>
-      <c r="J87" s="4">
+      <c r="J87" s="22">
         <v>5.8741674062150899</v>
       </c>
-      <c r="K87" s="4">
+      <c r="K87" s="22">
         <v>3.0297666118613567</v>
       </c>
-      <c r="L87" s="4">
+      <c r="L87" s="22">
         <v>30.513785964208989</v>
       </c>
-      <c r="M87" s="4">
+      <c r="M87" s="22">
         <v>14.263364111109851</v>
       </c>
       <c r="N87" s="2">
@@ -48346,28 +48361,28 @@
       <c r="E88" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F88" s="7" t="s">
+      <c r="F88" s="21" t="s">
         <v>456</v>
       </c>
-      <c r="G88" s="7" t="s">
+      <c r="G88" s="21" t="s">
         <v>526</v>
       </c>
-      <c r="H88" s="4">
+      <c r="H88" s="22">
         <v>3.4287300201655735</v>
       </c>
-      <c r="I88" s="4">
+      <c r="I88" s="22">
         <v>2.281863604376372</v>
       </c>
-      <c r="J88" s="4">
+      <c r="J88" s="22">
         <v>5.8899786178955162</v>
       </c>
-      <c r="K88" s="4">
+      <c r="K88" s="22">
         <v>3.0384713950735556</v>
       </c>
-      <c r="L88" s="4">
+      <c r="L88" s="22">
         <v>30.497084072439669</v>
       </c>
-      <c r="M88" s="4">
+      <c r="M88" s="22">
         <v>14.255556978821199</v>
       </c>
       <c r="N88" s="2">
@@ -48489,28 +48504,28 @@
       <c r="E89" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F89" s="7" t="s">
+      <c r="F89" s="21" t="s">
         <v>456</v>
       </c>
-      <c r="G89" s="7" t="s">
+      <c r="G89" s="21" t="s">
         <v>526</v>
       </c>
-      <c r="H89" s="4">
+      <c r="H89" s="22">
         <v>3.4324777670053099</v>
       </c>
-      <c r="I89" s="4">
+      <c r="I89" s="22">
         <v>2.1910998674035458</v>
       </c>
-      <c r="J89" s="4">
+      <c r="J89" s="22">
         <v>5.6674317042495801</v>
       </c>
-      <c r="K89" s="4">
+      <c r="K89" s="22">
         <v>2.9709476324041164</v>
       </c>
-      <c r="L89" s="4">
+      <c r="L89" s="22">
         <v>29.814913075873744</v>
       </c>
-      <c r="M89" s="4">
+      <c r="M89" s="22">
         <v>13.936682968186421</v>
       </c>
       <c r="N89" s="2">
@@ -48632,28 +48647,28 @@
       <c r="E90" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F90" s="7" t="s">
+      <c r="F90" s="21" t="s">
         <v>456</v>
       </c>
-      <c r="G90" s="7" t="s">
+      <c r="G90" s="21" t="s">
         <v>526</v>
       </c>
-      <c r="H90" s="4">
+      <c r="H90" s="22">
         <v>3.4286876887862818</v>
       </c>
-      <c r="I90" s="4">
+      <c r="I90" s="22">
         <v>2.1374773556193229</v>
       </c>
-      <c r="J90" s="4">
+      <c r="J90" s="22">
         <v>5.6727165391062053</v>
       </c>
-      <c r="K90" s="4">
+      <c r="K90" s="22">
         <v>2.9439528954230254</v>
       </c>
-      <c r="L90" s="4">
+      <c r="L90" s="22">
         <v>29.577448686563155</v>
       </c>
-      <c r="M90" s="4">
+      <c r="M90" s="22">
         <v>13.825682614047086</v>
       </c>
       <c r="N90" s="2">
@@ -48775,28 +48790,28 @@
       <c r="E91" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F91" s="7" t="s">
+      <c r="F91" s="21" t="s">
         <v>456</v>
       </c>
-      <c r="G91" s="7" t="s">
+      <c r="G91" s="21" t="s">
         <v>526</v>
       </c>
-      <c r="H91" s="4">
+      <c r="H91" s="22">
         <v>3.4108055153000638</v>
       </c>
-      <c r="I91" s="4">
+      <c r="I91" s="22">
         <v>2.2072555530897109</v>
       </c>
-      <c r="J91" s="4">
+      <c r="J91" s="22">
         <v>5.6617619089940057</v>
       </c>
-      <c r="K91" s="4">
+      <c r="K91" s="22">
         <v>2.9590666752811225</v>
       </c>
-      <c r="L91" s="4">
+      <c r="L91" s="22">
         <v>29.782429024196638</v>
       </c>
-      <c r="M91" s="4">
+      <c r="M91" s="22">
         <v>13.92149862307048</v>
       </c>
       <c r="N91" s="2">
